--- a/Supplementary file 4.xlsx
+++ b/Supplementary file 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA_charging/supplementary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNAseq_Elife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0912EB-5EEE-AD4B-A420-54EFA84FF48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0EB672-10C4-3A49-830F-5ADB02FF66ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="3000" windowWidth="28760" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acylation_half-lifes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="240">
   <si>
     <t>N0</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Homo_sapiens_tRNA-Ala-AGC-11-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ala-AGC-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ala-AGC-3-1</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>Homo_sapiens_tRNA-Ala-TGC-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ala-TGC-3-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ala-TGC-4-1</t>
   </si>
   <si>
@@ -265,18 +259,12 @@
     <t>Homo_sapiens_tRNA-Ala-TGC-6-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Arg-ACG-1-1</t>
-  </si>
-  <si>
     <t>CGU</t>
   </si>
   <si>
     <t>Homo_sapiens_tRNA-Arg-ACG-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Arg-CCG-1-1</t>
-  </si>
-  <si>
     <t>CGG</t>
   </si>
   <si>
@@ -322,18 +310,12 @@
     <t>Homo_sapiens_tRNA-Arg-TCT-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Arg-TCT-3-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Arg-TCT-4-1</t>
   </si>
   <si>
     <t>Homo_sapiens_tRNA-Asn-GTT-1-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Asn-GTT-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Asn-GTT-3-1</t>
   </si>
   <si>
@@ -346,36 +328,21 @@
     <t>Homo_sapiens_tRNA-Asp-GTC-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Cys-GCA-11-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens_tRNA-Cys-GCA-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Cys-GCA-4-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Cys-GCA-6-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Cys-GCA-8-1</t>
   </si>
   <si>
     <t>Homo_sapiens_tRNA-Cys-GCA-9-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Gln-CTG-1-1</t>
-  </si>
-  <si>
     <t>CAG</t>
   </si>
   <si>
     <t>Homo_sapiens_tRNA-Gln-CTG-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Gln-CTG-4-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Gln-TTG-1-1</t>
   </si>
   <si>
@@ -391,9 +358,6 @@
     <t>GAG</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Glu-TTC-1-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Glu-TTC-2-1</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>GGG</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Gly-CCC-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Gly-GCC-1-1</t>
   </si>
   <si>
@@ -439,9 +400,6 @@
     <t>Homo_sapiens_tRNA-Ile-AAT-4-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ile-AAT-5-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ile-AAT-6-1</t>
   </si>
   <si>
@@ -457,21 +415,12 @@
     <t>AUA</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ile-TAT-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Leu-AAG-1-1</t>
   </si>
   <si>
     <t>CUU</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Leu-AAG-2-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens_tRNA-Leu-CAA-1-1</t>
-  </si>
-  <si>
     <t>UUG</t>
   </si>
   <si>
@@ -547,9 +496,6 @@
     <t>Homo_sapiens_tRNA-Met-CAT-6-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Phe-GAA-1-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Phe-GAA-2-1</t>
   </si>
   <si>
@@ -580,18 +526,12 @@
     <t>Homo_sapiens_tRNA-Pro-TGG-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Pro-TGG-3-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ser-AGA-1-1</t>
   </si>
   <si>
     <t>UCU</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ser-AGA-2-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ser-CGA-1-1</t>
   </si>
   <si>
@@ -613,9 +553,6 @@
     <t>Homo_sapiens_tRNA-Ser-GCT-3-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Ser-GCT-4-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Ser-GCT-5-1</t>
   </si>
   <si>
@@ -688,9 +625,6 @@
     <t>Homo_sapiens_tRNA-Trp-CCA-2-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Trp-CCA-3-1</t>
-  </si>
-  <si>
     <t>Homo_sapiens_tRNA-Trp-CCA-4-1</t>
   </si>
   <si>
@@ -706,9 +640,6 @@
     <t>Homo_sapiens_tRNA-Val-AAC-3-1</t>
   </si>
   <si>
-    <t>Homo_sapiens_tRNA-Val-CAC-1-1</t>
-  </si>
-  <si>
     <t>GUG</t>
   </si>
   <si>
@@ -755,14 +686,70 @@
   </si>
   <si>
     <t>Fit sum of squared errors</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Ala-AGC-2-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Ala-TGC-3-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Arg-ACG-1-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Arg-CCG-1-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Asn-GTT-2-8</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Cys-GCA-2-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Gln-CTG-1-4</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Gln-CTG-4-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Glu-TTC-1-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Gly-CCC-2-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Ile-AAT-5-4</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Leu-AAG-2-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Phe-GAA-1-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Pro-TGG-3-2</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Ser-AGA-2-6</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Ser-TGA-3-1</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Trp-CCA-3-3</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_tRNA-Val-CAC-1-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1241,9 +1228,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1252,6 +1239,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1610,7 +1599,7 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1608,7 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" customWidth="1"/>
@@ -1628,25 +1617,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
@@ -1655,2095 +1644,2095 @@
         <v>1</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>3019.5390982343201</v>
+        <v>84.188000976591894</v>
       </c>
       <c r="F2" s="3">
-        <v>2772.2511101731902</v>
+        <v>80.068993415546899</v>
       </c>
       <c r="G2" s="3">
-        <v>3249.0705206969201</v>
-      </c>
-      <c r="H2" s="2">
-        <v>96.699925382847596</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.71092838676470105</v>
+        <v>88.207031979627999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>95.741178415682299</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.38654702936408403</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.71357433362501899</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2980.6608971266401</v>
+        <v>84.949950057969502</v>
       </c>
       <c r="F3" s="3">
-        <v>2883.7156962164299</v>
+        <v>81.949568368562396</v>
       </c>
       <c r="G3" s="3">
-        <v>3142.4848792121402</v>
-      </c>
-      <c r="H3" s="2">
-        <v>94.1514058470609</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.10559498322686101</v>
+        <v>89.139942526132202</v>
+      </c>
+      <c r="H3" s="7">
+        <v>95.903019023397107</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.25199858168003803</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.6333026658327401</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>2857.2979437998601</v>
+        <v>87.076758743143102</v>
       </c>
       <c r="F4" s="3">
-        <v>2614.1786981441501</v>
+        <v>83.916574716479602</v>
       </c>
       <c r="G4" s="3">
-        <v>3026.0370022015099</v>
-      </c>
-      <c r="H4" s="2">
-        <v>95.4989953003289</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.13772232963035</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.119403795690981</v>
+        <v>90.319924523591894</v>
+      </c>
+      <c r="H4" s="7">
+        <v>96.171572617216796</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.28623964565861498</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.68422303398751505</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>2841.4859032756999</v>
+        <v>88.031934880122193</v>
       </c>
       <c r="F5" s="3">
-        <v>2737.9211820734199</v>
+        <v>83.610620465420695</v>
       </c>
       <c r="G5" s="3">
-        <v>3075.8166057559001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>91.613901350166401</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.26978167306899298</v>
+        <v>92.868541051132496</v>
+      </c>
+      <c r="H5" s="7">
+        <v>96.530614856364807</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.23685364926679101</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.3003799302205099</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>2762.6449154296502</v>
+        <v>94.960752219223707</v>
       </c>
       <c r="F6" s="3">
-        <v>2614.82000795463</v>
+        <v>91.507685150318295</v>
       </c>
       <c r="G6" s="3">
-        <v>2948.7791650509298</v>
-      </c>
-      <c r="H6" s="2">
-        <v>95.1263163427205</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.8048145178780999</v>
+        <v>100.104140466548</v>
+      </c>
+      <c r="H6" s="7">
+        <v>89.580541682982997</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.3277578110374499</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.0789483201300598</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>2637.8605211222898</v>
+        <v>129.249095134621</v>
       </c>
       <c r="F7" s="3">
-        <v>2498.9425997363401</v>
+        <v>123.808473181132</v>
       </c>
       <c r="G7" s="3">
-        <v>3048.9114018361302</v>
-      </c>
-      <c r="H7" s="2">
-        <v>93.057803112908999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.359195335997331</v>
+        <v>135.45282391238899</v>
+      </c>
+      <c r="H7" s="7">
+        <v>91.360633328299002</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.50642711533977103</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.89859687343316796</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>2631.5255207932701</v>
+        <v>129.79333467989801</v>
       </c>
       <c r="F8" s="3">
-        <v>2379.6008268851301</v>
+        <v>124.55801713042</v>
       </c>
       <c r="G8" s="3">
-        <v>2806.3803068785001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>93.977215537599093</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.3771003847881298</v>
+        <v>134.01099175815901</v>
+      </c>
+      <c r="H8" s="7">
+        <v>92.427763953673505</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.49057161994701498</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.17189594797</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2629.4454910074101</v>
+        <v>130.23692179167301</v>
       </c>
       <c r="F9" s="3">
-        <v>2398.7745996352401</v>
+        <v>121.827998257429</v>
       </c>
       <c r="G9" s="3">
-        <v>2894.6024342819201</v>
-      </c>
-      <c r="H9" s="2">
-        <v>93.725490879983596</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.61493346905937</v>
+        <v>138.96657208687199</v>
+      </c>
+      <c r="H9" s="7">
+        <v>94.042134971825504</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.23077731207874899</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3.3700128170736998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>2629.1352874976801</v>
+        <v>131.30935721260701</v>
       </c>
       <c r="F10" s="3">
-        <v>2427.0152772940601</v>
+        <v>123.03215528870101</v>
       </c>
       <c r="G10" s="3">
-        <v>2842.0556011037502</v>
-      </c>
-      <c r="H10" s="2">
-        <v>98.702692850989294</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.40198562441236502</v>
+        <v>138.41176324912701</v>
+      </c>
+      <c r="H10" s="7">
+        <v>93.578381683412204</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.55489141202033598</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.6065074368847001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>2620.4629586843298</v>
+        <v>131.544195628121</v>
       </c>
       <c r="F11" s="3">
-        <v>2519.8857549621198</v>
+        <v>124.358771574063</v>
       </c>
       <c r="G11" s="3">
-        <v>2876.5203019491601</v>
-      </c>
-      <c r="H11" s="2">
-        <v>92.593197288097699</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.96781340108625102</v>
+        <v>138.625520989725</v>
+      </c>
+      <c r="H11" s="7">
+        <v>94.658407728547601</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.56893529162026102</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.980883434572835</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>2443.5347949831098</v>
+        <v>133.78193301742999</v>
       </c>
       <c r="F12" s="3">
-        <v>2298.3615288125702</v>
+        <v>127.940346919829</v>
       </c>
       <c r="G12" s="3">
-        <v>2597.6668742125999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>83.016273170571196</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.05947837850738</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.3941818296800701</v>
+        <v>139.237127911275</v>
+      </c>
+      <c r="H12" s="7">
+        <v>93.746528784905905</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.561671486590966</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.04387121321151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>2357.3125838900301</v>
+        <v>138.91117940487501</v>
       </c>
       <c r="F13" s="3">
-        <v>2171.9190213902898</v>
+        <v>132.39033928607699</v>
       </c>
       <c r="G13" s="3">
-        <v>2616.2047760006399</v>
-      </c>
-      <c r="H13" s="2">
-        <v>93.747613946009295</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.52103912868418</v>
+        <v>144.04972161023699</v>
+      </c>
+      <c r="H13" s="7">
+        <v>93.055390883759998</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.36110444538096997</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.81542583105994604</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>2343.9033667722301</v>
+        <v>170.72064524619</v>
       </c>
       <c r="F14" s="3">
-        <v>2167.2591434013498</v>
+        <v>155.893310437466</v>
       </c>
       <c r="G14" s="3">
-        <v>2534.73913685042</v>
-      </c>
-      <c r="H14" s="2">
-        <v>93.409254688221594</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.0037895857179</v>
+        <v>193.761709954964</v>
+      </c>
+      <c r="H14" s="7">
+        <v>89.699578210188093</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.9246553512961899</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.0832118941239499</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>2280.6572221352699</v>
+        <v>181.31403168069801</v>
       </c>
       <c r="F15" s="3">
-        <v>2177.58313040745</v>
+        <v>169.4257703051</v>
       </c>
       <c r="G15" s="3">
-        <v>2508.0647165880901</v>
-      </c>
-      <c r="H15" s="2">
-        <v>93.530444829272597</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.65029954757099095</v>
+        <v>193.66481936427201</v>
+      </c>
+      <c r="H15" s="7">
+        <v>80.062346502448804</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.847845253290616</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.234908534255792</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>2227.0209297865199</v>
+        <v>203.43803356587199</v>
       </c>
       <c r="F16" s="3">
-        <v>2104.3632686230999</v>
+        <v>197.67247818993599</v>
       </c>
       <c r="G16" s="3">
-        <v>2393.0719459987399</v>
-      </c>
-      <c r="H16" s="2">
-        <v>93.300656730774804</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.27127706502562898</v>
+        <v>208.44357607030699</v>
+      </c>
+      <c r="H16" s="7">
+        <v>94.976944824266894</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.60224171312155095</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.40772813851606499</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>2084.7658973277798</v>
+        <v>208.425308643633</v>
       </c>
       <c r="F17" s="3">
-        <v>1962.0640986808801</v>
+        <v>200.61232249750199</v>
       </c>
       <c r="G17" s="3">
-        <v>2235.7125032149302</v>
-      </c>
-      <c r="H17" s="2">
-        <v>93.246586153671302</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.1520606722107201</v>
+        <v>218.31848858972199</v>
+      </c>
+      <c r="H17" s="7">
+        <v>96.266783446670402</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.22594950292784699</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.93473010093688</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>2082.4843219389099</v>
+        <v>209.12993064124601</v>
       </c>
       <c r="F18" s="3">
-        <v>1913.1336626955399</v>
+        <v>198.99486763092801</v>
       </c>
       <c r="G18" s="3">
-        <v>2259.01782716152</v>
-      </c>
-      <c r="H18" s="2">
-        <v>91.6591784788491</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.17004196978994</v>
+        <v>221.606708553175</v>
+      </c>
+      <c r="H18" s="7">
+        <v>95.424600339788398</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.171482537580048</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4.6457183810545901</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>2018.93837052819</v>
+        <v>211.29462591375901</v>
       </c>
       <c r="F19" s="3">
-        <v>1879.23648601574</v>
+        <v>205.91859122368899</v>
       </c>
       <c r="G19" s="3">
-        <v>2193.6488678146502</v>
-      </c>
-      <c r="H19" s="2">
-        <v>93.050403729474496</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.9232042042917701</v>
+        <v>219.304442738576</v>
+      </c>
+      <c r="H19" s="7">
+        <v>95.810665579189802</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.45224990897158801</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.3012250597655199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>2007.69499499208</v>
+        <v>212.759983905935</v>
       </c>
       <c r="F20" s="3">
-        <v>1847.78634892526</v>
+        <v>205.93187839136999</v>
       </c>
       <c r="G20" s="3">
-        <v>2197.0051506831001</v>
-      </c>
-      <c r="H20" s="2">
-        <v>92.856828850142904</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2.5842739158941099</v>
+        <v>223.41080042119901</v>
+      </c>
+      <c r="H20" s="7">
+        <v>94.347023022413595</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.61171779739661403</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.34146919301255</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>1022.98860477785</v>
+        <v>214.821199674811</v>
       </c>
       <c r="F21" s="3">
-        <v>944.79268358914999</v>
+        <v>195.89073123831099</v>
       </c>
       <c r="G21" s="3">
-        <v>1122.7293505033899</v>
-      </c>
-      <c r="H21" s="2">
-        <v>78.368677459829598</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2.5126222247038998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>8.0069979710346502</v>
+        <v>238.90379520264401</v>
+      </c>
+      <c r="H21" s="7">
+        <v>93.299640888515896</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J21" s="6">
+        <v>15.045311780130501</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>981.805894106501</v>
+        <v>214.98125334706199</v>
       </c>
       <c r="F22" s="3">
-        <v>938.75764527436502</v>
+        <v>207.92843266147901</v>
       </c>
       <c r="G22" s="3">
-        <v>1023.58996113562</v>
-      </c>
-      <c r="H22" s="2">
-        <v>95.710632713616207</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3.96529181935973</v>
+        <v>221.101212559939</v>
+      </c>
+      <c r="H22" s="7">
+        <v>95.185323714060701</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.250084842849573</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.6541676469404301</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>914.96823937048305</v>
+        <v>215.50749789846699</v>
       </c>
       <c r="F23" s="3">
-        <v>813.00392744153305</v>
+        <v>209.17022653307399</v>
       </c>
       <c r="G23" s="3">
-        <v>1000.81139889396</v>
-      </c>
-      <c r="H23" s="2">
-        <v>93.392853666027193</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5.5881509830807303</v>
+        <v>220.64437970723401</v>
+      </c>
+      <c r="H23" s="7">
+        <v>94.640468038080797</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.52160433246299498</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4.4227958661126703</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>903.14445764480399</v>
+        <v>216.145341557042</v>
       </c>
       <c r="F24" s="3">
-        <v>874.33424057133197</v>
+        <v>205.34938540993301</v>
       </c>
       <c r="G24" s="3">
-        <v>923.60236646671603</v>
-      </c>
-      <c r="H24" s="2">
-        <v>96.431287778471699</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.6498255390952701</v>
+        <v>225.60499829244401</v>
+      </c>
+      <c r="H24" s="7">
+        <v>96.463876028618401</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.139446998097428</v>
+      </c>
+      <c r="J24" s="6">
+        <v>3.3036474994245801</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>896.758484455813</v>
+        <v>218.12868794898799</v>
       </c>
       <c r="F25" s="3">
-        <v>832.77461578482098</v>
+        <v>207.266751095845</v>
       </c>
       <c r="G25" s="3">
-        <v>920.49148879601</v>
-      </c>
-      <c r="H25" s="2">
-        <v>94.398069422094494</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.11899884145224</v>
+        <v>229.153187273079</v>
+      </c>
+      <c r="H25" s="7">
+        <v>95.964306637861995</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5.1058384889522301E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2.8634326198622699</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>889.09501103908497</v>
+        <v>220.155883499288</v>
       </c>
       <c r="F26" s="3">
-        <v>800.17661312165603</v>
+        <v>201.702420212394</v>
       </c>
       <c r="G26" s="3">
-        <v>943.76412384949299</v>
-      </c>
-      <c r="H26" s="2">
-        <v>93.458801197027</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>6.2661518065392299</v>
+        <v>244.06351017069699</v>
+      </c>
+      <c r="H26" s="7">
+        <v>93.5344167342909</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.4370445703983998</v>
+      </c>
+      <c r="J26" s="6">
+        <v>8.51517235829877</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>888.82178046371496</v>
+        <v>220.945985705623</v>
       </c>
       <c r="F27" s="3">
-        <v>773.07212394829696</v>
+        <v>203.91358798312999</v>
       </c>
       <c r="G27" s="3">
-        <v>967.73133873601898</v>
-      </c>
-      <c r="H27" s="2">
-        <v>93.929850153147498</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4.4316687296852901</v>
+        <v>240.985509229613</v>
+      </c>
+      <c r="H27" s="7">
+        <v>93.566988484994198</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J27" s="6">
+        <v>12.8148040053877</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>887.75035628604201</v>
+        <v>221.497138862269</v>
       </c>
       <c r="F28" s="3">
-        <v>758.98172659177601</v>
+        <v>209.97087037518699</v>
       </c>
       <c r="G28" s="3">
-        <v>976.61626311309101</v>
-      </c>
-      <c r="H28" s="2">
-        <v>93.652146737623696</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.93968680813809702</v>
-      </c>
-      <c r="J28" s="1">
-        <v>9.4553242733930105</v>
+        <v>235.88709580303399</v>
+      </c>
+      <c r="H28" s="7">
+        <v>94.890515543528906</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.225494026261879</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3.00158505705949</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>877.71283842850198</v>
+        <v>223.293607072545</v>
       </c>
       <c r="F29" s="3">
-        <v>801.12118350674302</v>
+        <v>199.18551762778799</v>
       </c>
       <c r="G29" s="3">
-        <v>915.21325301577804</v>
-      </c>
-      <c r="H29" s="2">
-        <v>96.543379669095302</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3.0730560312541102</v>
+        <v>245.540178803347</v>
+      </c>
+      <c r="H29" s="7">
+        <v>96.632857398191703</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.30192613969272097</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.58806973075972</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>861.29344727898297</v>
+        <v>226.08653935210401</v>
       </c>
       <c r="F30" s="3">
-        <v>793.98954934702203</v>
+        <v>197.08881318761701</v>
       </c>
       <c r="G30" s="3">
-        <v>919.77784658480596</v>
-      </c>
-      <c r="H30" s="2">
-        <v>92.214902804167195</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1.14196566743113</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.7078253859264501</v>
+        <v>255.121401198623</v>
+      </c>
+      <c r="H30" s="7">
+        <v>94.6420052434909</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2.6516984772816898</v>
+      </c>
+      <c r="J30" s="6">
+        <v>17.3288404609488</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>856.34926478224895</v>
+        <v>226.50898383133099</v>
       </c>
       <c r="F31" s="3">
-        <v>738.67651742764497</v>
+        <v>214.017421263806</v>
       </c>
       <c r="G31" s="3">
-        <v>956.10033583677205</v>
-      </c>
-      <c r="H31" s="2">
-        <v>92.978790156292604</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1.5607267204256901</v>
-      </c>
-      <c r="J31" s="1">
-        <v>6.9835760242874301</v>
+        <v>243.89057881654099</v>
+      </c>
+      <c r="H31" s="7">
+        <v>95.149651108652407</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1.06536956031997</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.68322052459463301</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>856.01723228133994</v>
+        <v>228.64796472001399</v>
       </c>
       <c r="F32" s="3">
-        <v>795.54077401745303</v>
+        <v>219.62699765202899</v>
       </c>
       <c r="G32" s="3">
-        <v>877.73228114988694</v>
-      </c>
-      <c r="H32" s="2">
-        <v>93.162242236205898</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.24490348862026901</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5.3087780492651602</v>
+        <v>237.59959444500399</v>
+      </c>
+      <c r="H32" s="7">
+        <v>96.160574319606297</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.32111093716293598</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2.7799588846385102</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>849.93565618838795</v>
+        <v>228.69082848569499</v>
       </c>
       <c r="F33" s="3">
-        <v>780.96183109114304</v>
+        <v>221.673374069511</v>
       </c>
       <c r="G33" s="3">
-        <v>913.98568454107897</v>
-      </c>
-      <c r="H33" s="2">
-        <v>94.802379465258696</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1.3621436919841701</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1.1944270121223699</v>
+        <v>237.84639355706801</v>
+      </c>
+      <c r="H33" s="7">
+        <v>95.931309909122604</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.202128618407515</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.1653030058179901</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>842.76207697843995</v>
+        <v>230.83293452253201</v>
       </c>
       <c r="F34" s="3">
-        <v>746.79414419237298</v>
+        <v>220.691887937898</v>
       </c>
       <c r="G34" s="3">
-        <v>897.04990049533501</v>
-      </c>
-      <c r="H34" s="2">
-        <v>91.561409632830404</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.3338971978606999</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3.9703129466873399</v>
+        <v>242.11310181410099</v>
+      </c>
+      <c r="H34" s="7">
+        <v>96.611148553815696</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.27252341555894699</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.833744792063708</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>841.11908897811702</v>
+        <v>236.06578604085701</v>
       </c>
       <c r="F35" s="3">
-        <v>706.69800631972396</v>
+        <v>227.61695423173401</v>
       </c>
       <c r="G35" s="3">
-        <v>921.06126619105999</v>
-      </c>
-      <c r="H35" s="2">
-        <v>93.616406086661598</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.124500905545895</v>
-      </c>
-      <c r="J35" s="1">
-        <v>6.3622174043621396</v>
+        <v>245.74755907205699</v>
+      </c>
+      <c r="H35" s="7">
+        <v>96.384754343891899</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5.5102384377405196</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>827.48337054682099</v>
+        <v>239.44770172230699</v>
       </c>
       <c r="F36" s="3">
-        <v>760.46774224784201</v>
+        <v>224.81908052796999</v>
       </c>
       <c r="G36" s="3">
-        <v>898.82708166838597</v>
-      </c>
-      <c r="H36" s="2">
-        <v>93.896436465055501</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2.5373052891232502</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.7227654525146501</v>
+        <v>256.470151660439</v>
+      </c>
+      <c r="H36" s="7">
+        <v>98.343015187863898</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>15.6498160898722</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>825.06143854376296</v>
+        <v>242.87691277892799</v>
       </c>
       <c r="F37" s="3">
-        <v>739.96979884280302</v>
+        <v>227.41572802827599</v>
       </c>
       <c r="G37" s="3">
-        <v>906.16540855587198</v>
-      </c>
-      <c r="H37" s="2">
-        <v>93.9868118473876</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2.2146474496806499</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2.5452385792304599</v>
+        <v>256.82469797637401</v>
+      </c>
+      <c r="H37" s="7">
+        <v>95.112364442909794</v>
+      </c>
+      <c r="I37" s="7">
+        <v>8.2301764095545404E-2</v>
+      </c>
+      <c r="J37" s="6">
+        <v>5.7773580814257999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>802.14699700617803</v>
+        <v>251.040910125496</v>
       </c>
       <c r="F38" s="3">
-        <v>693.25221230007105</v>
+        <v>237.14868285067399</v>
       </c>
       <c r="G38" s="3">
-        <v>903.11226684215899</v>
-      </c>
-      <c r="H38" s="2">
-        <v>90.789105326267801</v>
-      </c>
-      <c r="I38" s="2">
-        <v>2.4849968373698599</v>
-      </c>
-      <c r="J38" s="1">
-        <v>4.7109845455318098</v>
+        <v>264.34011834818602</v>
+      </c>
+      <c r="H38" s="7">
+        <v>96.491156834165494</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8.85500426156106E-2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>10.5638868684795</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>746.97725777296603</v>
+        <v>254.96524365509899</v>
       </c>
       <c r="F39" s="3">
-        <v>709.70136220890799</v>
+        <v>241.07294100656901</v>
       </c>
       <c r="G39" s="3">
-        <v>823.89331687858498</v>
-      </c>
-      <c r="H39" s="2">
-        <v>89.441015523348398</v>
-      </c>
-      <c r="I39" s="2">
-        <v>3.0757878488736901</v>
-      </c>
-      <c r="J39" s="1">
-        <v>4.8487725779249802</v>
+        <v>268.02341434687298</v>
+      </c>
+      <c r="H39" s="7">
+        <v>96.633449648813695</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6.2739832618317004E-2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>11.7928711105465</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>738.01797475329204</v>
+        <v>267.22206910351099</v>
       </c>
       <c r="F40" s="3">
-        <v>682.58082140697002</v>
+        <v>250.01642411798201</v>
       </c>
       <c r="G40" s="3">
-        <v>757.85455867725295</v>
-      </c>
-      <c r="H40" s="2">
-        <v>97.973282530038404</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.47266489409736001</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.97710485523453305</v>
+        <v>281.43211602609898</v>
+      </c>
+      <c r="H40" s="7">
+        <v>97.1365003563551</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5.5395940249758496E-3</v>
+      </c>
+      <c r="J40" s="6">
+        <v>15.670325345077799</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>733.92080379120398</v>
+        <v>292.40998669200297</v>
       </c>
       <c r="F41" s="3">
-        <v>657.14728547922198</v>
+        <v>264.29212275828002</v>
       </c>
       <c r="G41" s="3">
-        <v>771.02057811534996</v>
-      </c>
-      <c r="H41" s="2">
-        <v>84.984200380181093</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>6.0186208657747597</v>
+        <v>313.108746926918</v>
+      </c>
+      <c r="H41" s="7">
+        <v>99.145681586142103</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>26.1545104976096</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>732.22516032830697</v>
+        <v>306.270085578026</v>
       </c>
       <c r="F42" s="3">
-        <v>682.75440945887499</v>
+        <v>276.23876648313302</v>
       </c>
       <c r="G42" s="3">
-        <v>751.74417464360795</v>
-      </c>
-      <c r="H42" s="2">
-        <v>97.422849571728094</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.75799309792324798</v>
+        <v>325.63007625854402</v>
+      </c>
+      <c r="H42" s="7">
+        <v>99.159413743060298</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>32.003262698251</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>726.46675692187102</v>
+        <v>346.388798059718</v>
       </c>
       <c r="F43" s="3">
-        <v>659.55094347088198</v>
+        <v>333.54632445690203</v>
       </c>
       <c r="G43" s="3">
-        <v>757.58276393435904</v>
-      </c>
-      <c r="H43" s="2">
-        <v>97.161936260971402</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.10433740467088</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.48023656663891001</v>
+        <v>363.41735394661998</v>
+      </c>
+      <c r="H43" s="7">
+        <v>92.058707929805493</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1.3801469280090499</v>
+      </c>
+      <c r="J43" s="6">
+        <v>6.1646530387240199</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>721.86066273465201</v>
+        <v>361.00362090879798</v>
       </c>
       <c r="F44" s="3">
-        <v>629.65130062442904</v>
+        <v>348.21804084564599</v>
       </c>
       <c r="G44" s="3">
-        <v>756.93299298258796</v>
-      </c>
-      <c r="H44" s="2">
-        <v>84.738385500013294</v>
-      </c>
-      <c r="I44" s="2">
-        <v>2.2506929226987198E-2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3.0974199883383502</v>
+        <v>372.56235124525699</v>
+      </c>
+      <c r="H44" s="7">
+        <v>94.024802534941202</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1.13474998396911</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.75379707840270505</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>721.59717093811503</v>
+        <v>374.575489310705</v>
       </c>
       <c r="F45" s="3">
-        <v>641.76440879429094</v>
+        <v>362.05829088681702</v>
       </c>
       <c r="G45" s="3">
-        <v>758.47315947021605</v>
-      </c>
-      <c r="H45" s="2">
-        <v>84.115642144538</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>7.6365332810040902</v>
+        <v>386.81567619597001</v>
+      </c>
+      <c r="H45" s="7">
+        <v>95.094890228594593</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1.5962296762928401</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.473504627770514</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>721.05048771514896</v>
+        <v>378.44796288147597</v>
       </c>
       <c r="F46" s="3">
-        <v>683.91789541913602</v>
+        <v>361.346053425192</v>
       </c>
       <c r="G46" s="3">
-        <v>739.03676507696503</v>
-      </c>
-      <c r="H46" s="2">
-        <v>97.328577210944999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.36362647764230899</v>
+        <v>401.046584013737</v>
+      </c>
+      <c r="H46" s="7">
+        <v>95.0470157939762</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1.0453041005321799</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2.2756012918359598</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>719.91857100242305</v>
+        <v>381.30023321132597</v>
       </c>
       <c r="F47" s="3">
-        <v>672.96466938853405</v>
+        <v>368.690677727516</v>
       </c>
       <c r="G47" s="3">
-        <v>747.86115537864703</v>
-      </c>
-      <c r="H47" s="2">
-        <v>97.658690244917494</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.132182917654595</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.505878126122842</v>
+        <v>395.94623904796998</v>
+      </c>
+      <c r="H47" s="7">
+        <v>96.2724574362597</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1.2767918560654901</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.94062094587259704</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>719.75445933487094</v>
+        <v>386.89503678359603</v>
       </c>
       <c r="F48" s="3">
-        <v>680.50773269292597</v>
+        <v>371.64164183182299</v>
       </c>
       <c r="G48" s="3">
-        <v>747.36833920538197</v>
-      </c>
-      <c r="H48" s="2">
-        <v>84.628707379216905</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>7.0454028247688099</v>
+        <v>398.60430766031197</v>
+      </c>
+      <c r="H48" s="7">
+        <v>95.372153391940699</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.66742984868885702</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1.74239308117661</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>706.95538848799094</v>
+        <v>388.97864771758498</v>
       </c>
       <c r="F49" s="3">
-        <v>651.96331869052005</v>
+        <v>376.11772076215601</v>
       </c>
       <c r="G49" s="3">
-        <v>731.641556457305</v>
-      </c>
-      <c r="H49" s="2">
-        <v>98.149996231522195</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.37828611898501102</v>
+        <v>406.12806310820901</v>
+      </c>
+      <c r="H49" s="7">
+        <v>97.324582625816703</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.60306553032129995</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.31256205804996</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>706.68061925548795</v>
+        <v>390.82466516303901</v>
       </c>
       <c r="F50" s="3">
-        <v>627.27693279646496</v>
+        <v>373.79900037923102</v>
       </c>
       <c r="G50" s="3">
-        <v>754.47945607025497</v>
-      </c>
-      <c r="H50" s="2">
-        <v>83.185065735170099</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>8.8060309709374707</v>
+        <v>406.33366011276598</v>
+      </c>
+      <c r="H50" s="7">
+        <v>96.6290457654775</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.60585421418426599</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.13267892786587</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>706.22442149782501</v>
+        <v>392.89936408247598</v>
       </c>
       <c r="F51" s="3">
-        <v>677.71633874587405</v>
+        <v>378.88501370330403</v>
       </c>
       <c r="G51" s="3">
-        <v>717.93390837298602</v>
-      </c>
-      <c r="H51" s="2">
-        <v>98.562998709798904</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.67490864449627797</v>
+        <v>410.00488316184197</v>
+      </c>
+      <c r="H51" s="7">
+        <v>96.355526308302103</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.78262567759634105</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.67226429718552205</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>701.27174048035602</v>
+        <v>395.270924027408</v>
       </c>
       <c r="F52" s="3">
-        <v>632.165566172897</v>
+        <v>374.06434805988403</v>
       </c>
       <c r="G52" s="3">
-        <v>735.10461441113796</v>
-      </c>
-      <c r="H52" s="2">
-        <v>86.010145106711903</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>6.4004092467414297</v>
+        <v>420.971747323795</v>
+      </c>
+      <c r="H52" s="7">
+        <v>93.691628020628599</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1.0327839375927901</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1.0115914978938401</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>700.64058304763898</v>
+        <v>396.39770139374099</v>
       </c>
       <c r="F53" s="3">
-        <v>621.75984103231599</v>
+        <v>380.142789883028</v>
       </c>
       <c r="G53" s="3">
-        <v>730.76380173106497</v>
-      </c>
-      <c r="H53" s="2">
-        <v>94.779389722986394</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.52732369950425195</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.89539774477298295</v>
+        <v>415.49081485862303</v>
+      </c>
+      <c r="H53" s="7">
+        <v>94.6360013778189</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.73771696699040201</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2.15142065840047</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>700.02383514970995</v>
+        <v>398.01885224623697</v>
       </c>
       <c r="F54" s="3">
-        <v>627.40080540992903</v>
+        <v>377.05830214218997</v>
       </c>
       <c r="G54" s="3">
-        <v>760.20681570055797</v>
-      </c>
-      <c r="H54" s="2">
-        <v>96.208805475201999</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1.05638231475751</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.92399557533524</v>
+        <v>419.24782097396098</v>
+      </c>
+      <c r="H54" s="7">
+        <v>93.791665018169496</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.27943025978826203</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2.2293366875313501</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>682.624378051446</v>
+        <v>399.08554374773797</v>
       </c>
       <c r="F55" s="3">
-        <v>643.27437977593502</v>
+        <v>379.705804821941</v>
       </c>
       <c r="G55" s="3">
-        <v>726.92129392252298</v>
-      </c>
-      <c r="H55" s="2">
-        <v>96.141081216993399</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1.64279196439352</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.46879819158173702</v>
+        <v>414.99333834604801</v>
+      </c>
+      <c r="H55" s="7">
+        <v>92.908144429109797</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.99610596086297698</v>
+      </c>
+      <c r="J55" s="6">
+        <v>3.2725478792646299</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>681.00104779972298</v>
+        <v>400.97930255238998</v>
       </c>
       <c r="F56" s="3">
-        <v>618.27860584766597</v>
+        <v>382.24920097737999</v>
       </c>
       <c r="G56" s="3">
-        <v>710.58834167432406</v>
-      </c>
-      <c r="H56" s="2">
-        <v>84.107254421281596</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>6.38029371606439</v>
+        <v>414.35743372962003</v>
+      </c>
+      <c r="H56" s="7">
+        <v>97.463775097537507</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.15159262865134601</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2.36565837938437</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>678.27949145206003</v>
+        <v>404.75217469647902</v>
       </c>
       <c r="F57" s="3">
-        <v>617.26910526320398</v>
+        <v>387.37391297716601</v>
       </c>
       <c r="G57" s="3">
-        <v>706.08438530153296</v>
-      </c>
-      <c r="H57" s="2">
-        <v>83.810267470506403</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0.14446687809365599</v>
-      </c>
-      <c r="J57" s="1">
-        <v>7.1711245872679097</v>
+        <v>422.33632775993999</v>
+      </c>
+      <c r="H57" s="7">
+        <v>96.9907982678113</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.44758980626152101</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2.0551367472691502</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>676.22312121006496</v>
+        <v>409.52774473152101</v>
       </c>
       <c r="F58" s="3">
-        <v>591.42343593318697</v>
+        <v>398.355092348808</v>
       </c>
       <c r="G58" s="3">
-        <v>755.09788920359404</v>
-      </c>
-      <c r="H58" s="2">
-        <v>90.938718594449398</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1.0367837561108699</v>
-      </c>
-      <c r="J58" s="1">
-        <v>4.5543456249933003</v>
+        <v>422.32248524314002</v>
+      </c>
+      <c r="H58" s="7">
+        <v>97.202448771599094</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.47088575017418299</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.47869837519327102</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>664.94449581352501</v>
+        <v>411.72567356519602</v>
       </c>
       <c r="F59" s="3">
-        <v>620.07646236591995</v>
+        <v>395.820348259578</v>
       </c>
       <c r="G59" s="3">
-        <v>694.10648252576902</v>
-      </c>
-      <c r="H59" s="2">
-        <v>93.058848001210805</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>2.5756264097686201</v>
+        <v>424.66132209941401</v>
+      </c>
+      <c r="H59" s="7">
+        <v>97.702089599593506</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.23399900873318799</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2.6114689259900201</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>661.67718684765896</v>
+        <v>413.73482512217299</v>
       </c>
       <c r="F60" s="3">
-        <v>616.41118861471796</v>
+        <v>383.84372187071602</v>
       </c>
       <c r="G60" s="3">
-        <v>719.110319549064</v>
-      </c>
-      <c r="H60" s="2">
-        <v>93.541253058503301</v>
-      </c>
-      <c r="I60" s="2">
-        <v>2.3853313795554598</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.70934229120980297</v>
+        <v>437.75348245384401</v>
+      </c>
+      <c r="H60" s="7">
+        <v>95.829232983127099</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0.35418321049885199</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1.5468103956406101</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>661.00706332854998</v>
+        <v>419.69255747840498</v>
       </c>
       <c r="F61" s="3">
-        <v>588.28180075089301</v>
+        <v>403.36976509726497</v>
       </c>
       <c r="G61" s="3">
-        <v>704.58621054652394</v>
-      </c>
-      <c r="H61" s="2">
-        <v>83.691294723533204</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.45738561498409702</v>
-      </c>
-      <c r="J61" s="1">
-        <v>4.8991331345531304</v>
+        <v>439.20502831661901</v>
+      </c>
+      <c r="H61" s="7">
+        <v>95.045018127781105</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.37476166474212802</v>
+      </c>
+      <c r="J61" s="6">
+        <v>2.1778768768982801</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>659.65444921232699</v>
+        <v>420.849742728585</v>
       </c>
       <c r="F62" s="3">
-        <v>623.01177442733103</v>
+        <v>397.12277876558102</v>
       </c>
       <c r="G62" s="3">
-        <v>705.90460259209999</v>
-      </c>
-      <c r="H62" s="2">
-        <v>89.974504131281805</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1.6789224486809</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0.37955193320219699</v>
+        <v>441.513061164509</v>
+      </c>
+      <c r="H62" s="7">
+        <v>85.747038553976196</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.47675410045713301</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2.0836264576972301</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="3">
-        <v>653.52209756968</v>
+        <v>426.33054794955098</v>
       </c>
       <c r="F63" s="3">
-        <v>628.053587008558</v>
+        <v>405.356857769231</v>
       </c>
       <c r="G63" s="3">
-        <v>693.76990834154901</v>
-      </c>
-      <c r="H63" s="2">
-        <v>93.753158717035205</v>
-      </c>
-      <c r="I63" s="2">
-        <v>3.0321518584196498</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0.57406034329298705</v>
+        <v>451.06576611907599</v>
+      </c>
+      <c r="H63" s="7">
+        <v>86.602269504695698</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2.5444887031831001</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1.1833384663393001</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>649.41788476824502</v>
+        <v>430.849655516501</v>
       </c>
       <c r="F64" s="3">
-        <v>597.67576066798802</v>
+        <v>402.869290713699</v>
       </c>
       <c r="G64" s="3">
-        <v>697.17139592315698</v>
-      </c>
-      <c r="H64" s="2">
-        <v>83.4317945740315</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0.430112728237661</v>
-      </c>
-      <c r="J64" s="1">
-        <v>7.4094346783762504</v>
+        <v>459.78727085967398</v>
+      </c>
+      <c r="H64" s="7">
+        <v>89.551177401292904</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1.24924118050927</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.2872974025441899</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>647.54863757706596</v>
+        <v>436.47498809414202</v>
       </c>
       <c r="F65" s="3">
-        <v>549.083785893288</v>
+        <v>411.73400937618902</v>
       </c>
       <c r="G65" s="3">
-        <v>699.71588114070198</v>
-      </c>
-      <c r="H65" s="2">
-        <v>84.831360450942896</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0.96631455392654098</v>
-      </c>
-      <c r="J65" s="1">
-        <v>6.7008064637262903</v>
+        <v>459.69801490503602</v>
+      </c>
+      <c r="H65" s="7">
+        <v>95.705520142957397</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0.13154543713237099</v>
+      </c>
+      <c r="J65" s="6">
+        <v>2.6886670287726901</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>611.13024044112603</v>
+        <v>443.88686572891697</v>
       </c>
       <c r="F66" s="3">
-        <v>568.87532332958403</v>
+        <v>428.42274640955497</v>
       </c>
       <c r="G66" s="3">
-        <v>635.34920050772598</v>
-      </c>
-      <c r="H66" s="2">
-        <v>94.318272657076307</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.59307691950654795</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.95949492887931098</v>
+        <v>459.507620517639</v>
+      </c>
+      <c r="H66" s="7">
+        <v>96.187692700004106</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0.479666349474137</v>
+      </c>
+      <c r="J66" s="6">
+        <v>3.54612748721659</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
@@ -3752,382 +3741,382 @@
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>605.93847269828302</v>
+        <v>456.26253587405103</v>
       </c>
       <c r="F67" s="3">
-        <v>582.18709012643399</v>
+        <v>420.02967829458203</v>
       </c>
       <c r="G67" s="3">
-        <v>617.385604804541</v>
-      </c>
-      <c r="H67" s="2">
-        <v>97.229771054188504</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0.50492514431008095</v>
+        <v>510.43157537114303</v>
+      </c>
+      <c r="H67" s="7">
+        <v>91.575654981656598</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2.8172632744819399</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1.9425939475635301</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>601.96882996363695</v>
+        <v>456.66476366974098</v>
       </c>
       <c r="F68" s="3">
-        <v>563.87491645851605</v>
+        <v>428.18102964559898</v>
       </c>
       <c r="G68" s="3">
-        <v>648.40712072616395</v>
-      </c>
-      <c r="H68" s="2">
-        <v>91.997263510173994</v>
-      </c>
-      <c r="I68" s="2">
-        <v>1.17441529505001</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1.70833452693431</v>
+        <v>488.31558952986097</v>
+      </c>
+      <c r="H68" s="7">
+        <v>98.470513973489801</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>5.2783765793503603</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>599.29289616625601</v>
+        <v>457.95297448255002</v>
       </c>
       <c r="F69" s="3">
-        <v>570.37632872925496</v>
+        <v>436.17051054029702</v>
       </c>
       <c r="G69" s="3">
-        <v>623.84555561475895</v>
-      </c>
-      <c r="H69" s="2">
-        <v>95.018777521371007</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0.59260749137528501</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.1071273296582</v>
+        <v>474.56022786458101</v>
+      </c>
+      <c r="H69" s="7">
+        <v>94.063352708163194</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0.55678761145364797</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.67216492283625795</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>594.83880989883505</v>
+        <v>459.97084145224198</v>
       </c>
       <c r="F70" s="3">
-        <v>555.16263930555999</v>
+        <v>446.05103836791199</v>
       </c>
       <c r="G70" s="3">
-        <v>622.97688551470901</v>
-      </c>
-      <c r="H70" s="2">
-        <v>92.876728894429107</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1.5965535591922799</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.9667084299845099</v>
+        <v>471.81859429409798</v>
+      </c>
+      <c r="H70" s="7">
+        <v>96.423487366843403</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.86908959072352399</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>593.96276937695097</v>
+        <v>460.90501542942201</v>
       </c>
       <c r="F71" s="3">
-        <v>498.89649014101099</v>
+        <v>436.44937569718797</v>
       </c>
       <c r="G71" s="3">
-        <v>670.87725325819497</v>
-      </c>
-      <c r="H71" s="2">
-        <v>76.774824374964496</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1.3591675155287699</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.3637816277482899</v>
+        <v>486.85548394215903</v>
+      </c>
+      <c r="H71" s="7">
+        <v>95.648877294878403</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0.368648136400472</v>
+      </c>
+      <c r="J71" s="6">
+        <v>6.4266781665589798</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>592.09738243836102</v>
+        <v>462.94206393978197</v>
       </c>
       <c r="F72" s="3">
-        <v>551.30079036766404</v>
+        <v>438.27445919874498</v>
       </c>
       <c r="G72" s="3">
-        <v>629.55513194888601</v>
-      </c>
-      <c r="H72" s="2">
-        <v>83.899181492297103</v>
-      </c>
-      <c r="I72" s="2">
-        <v>2.1447479873389401</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1.32652385427581</v>
+        <v>489.17692809668699</v>
+      </c>
+      <c r="H72" s="7">
+        <v>93.912217756836</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.26183425488241602</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4.2349786235458797</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <v>582.94105875808896</v>
+        <v>463.46363015229201</v>
       </c>
       <c r="F73" s="3">
-        <v>521.42420424587101</v>
+        <v>441.47397408094002</v>
       </c>
       <c r="G73" s="3">
-        <v>676.57931220411797</v>
-      </c>
-      <c r="H73" s="2">
-        <v>77.822532757025897</v>
-      </c>
-      <c r="I73" s="2">
-        <v>3.1688078563007198</v>
-      </c>
-      <c r="J73" s="1">
-        <v>2.9505217945645099</v>
+        <v>480.25495275759999</v>
+      </c>
+      <c r="H73" s="7">
+        <v>96.941264857608402</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1.5314077209083401</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>568.51754592040004</v>
+        <v>463.78627486452501</v>
       </c>
       <c r="F74" s="3">
-        <v>533.27706067905399</v>
+        <v>447.94062423362402</v>
       </c>
       <c r="G74" s="3">
-        <v>638.36663091812704</v>
-      </c>
-      <c r="H74" s="2">
-        <v>86.541175581749002</v>
-      </c>
-      <c r="I74" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J74" s="1">
-        <v>4.3768168276053201</v>
+        <v>472.21365088769602</v>
+      </c>
+      <c r="H74" s="7">
+        <v>96.433470034092593</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>2.67699892834385</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <v>562.95454333204998</v>
+        <v>464.43188923829399</v>
       </c>
       <c r="F75" s="3">
-        <v>539.36557666287297</v>
+        <v>452.07839241602898</v>
       </c>
       <c r="G75" s="3">
-        <v>605.45715355661696</v>
-      </c>
-      <c r="H75" s="2">
-        <v>95.747549369802499</v>
-      </c>
-      <c r="I75" s="2">
-        <v>2.4915186148552402</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0.93846984730652505</v>
+        <v>479.41048482602599</v>
+      </c>
+      <c r="H75" s="7">
+        <v>96.000327479116905</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1.9281717241766501</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="3">
-        <v>561.81675443595702</v>
+        <v>465.21610268199203</v>
       </c>
       <c r="F76" s="3">
-        <v>534.77740709104296</v>
+        <v>442.11289949495603</v>
       </c>
       <c r="G76" s="3">
-        <v>594.13570925366298</v>
-      </c>
-      <c r="H76" s="2">
-        <v>96.191422246063397</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1.2154528347459801</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0.51490318772427002</v>
+        <v>490.51316237238899</v>
+      </c>
+      <c r="H76" s="7">
+        <v>92.442859868445595</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0.74312096610350897</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1.0136107547445099</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="3">
-        <v>538.07801271730602</v>
+        <v>470.180467813159</v>
       </c>
       <c r="F77" s="3">
-        <v>504.09435097837098</v>
+        <v>444.47664779542498</v>
       </c>
       <c r="G77" s="3">
-        <v>564.68366090226903</v>
-      </c>
-      <c r="H77" s="2">
-        <v>95.152462451501805</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1.15596240620302</v>
-      </c>
-      <c r="J77" s="1">
-        <v>1.38354519470104</v>
+        <v>491.00379152637299</v>
+      </c>
+      <c r="H77" s="7">
+        <v>97.510096770806996</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>2.2220035652718799</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3">
-        <v>533.11233773251604</v>
+        <v>474.92528774469201</v>
       </c>
       <c r="F78" s="3">
-        <v>479.00286035210098</v>
+        <v>455.97693861322</v>
       </c>
       <c r="G78" s="3">
-        <v>612.168307273908</v>
-      </c>
-      <c r="H78" s="2">
-        <v>79.277800081502207</v>
-      </c>
-      <c r="I78" s="2">
-        <v>2.5184023301290299</v>
-      </c>
-      <c r="J78" s="1">
-        <v>14.270359701317799</v>
+        <v>491.36686701992397</v>
+      </c>
+      <c r="H78" s="7">
+        <v>97.2495100520199</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>3.2516189533173998</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -4136,94 +4125,94 @@
         <v>0</v>
       </c>
       <c r="E79" s="3">
-        <v>531.70273668535799</v>
+        <v>478.97268720603199</v>
       </c>
       <c r="F79" s="3">
-        <v>504.90564496584699</v>
+        <v>455.44395403204101</v>
       </c>
       <c r="G79" s="3">
-        <v>554.24250300216795</v>
-      </c>
-      <c r="H79" s="2">
-        <v>95.132001162224498</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1.4219215174391999</v>
-      </c>
-      <c r="J79" s="1">
-        <v>1.9210309397117999</v>
+        <v>506.30130722874998</v>
+      </c>
+      <c r="H79" s="7">
+        <v>92.948103757561498</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2.1875813894510201</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0.822926255010621</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>529.24553988890898</v>
+        <v>479.32813402438802</v>
       </c>
       <c r="F80" s="3">
-        <v>482.04659890126902</v>
+        <v>462.21255141128199</v>
       </c>
       <c r="G80" s="3">
-        <v>580.12399291558097</v>
-      </c>
-      <c r="H80" s="2">
-        <v>92.444843845141193</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1.7508705847923201</v>
-      </c>
-      <c r="J80" s="1">
-        <v>2.6031477398541099</v>
+        <v>490.74172853797</v>
+      </c>
+      <c r="H80" s="7">
+        <v>97.422076375509704</v>
+      </c>
+      <c r="I80" s="7">
+        <v>8.4239461647270097E-3</v>
+      </c>
+      <c r="J80" s="6">
+        <v>2.5725326105677402</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>527.87131005621495</v>
+        <v>503.20405277691498</v>
       </c>
       <c r="F81" s="3">
-        <v>496.26324033273397</v>
+        <v>474.98836736171199</v>
       </c>
       <c r="G81" s="3">
-        <v>565.35129902278698</v>
-      </c>
-      <c r="H81" s="2">
-        <v>87.6036605349788</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1.8561026886371099</v>
-      </c>
-      <c r="J81" s="1">
-        <v>4.6553548204688902</v>
+        <v>525.92015239504701</v>
+      </c>
+      <c r="H81" s="7">
+        <v>96.803817676977204</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.70088783184992098</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1.74897835932599</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
@@ -4232,27 +4221,27 @@
         <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>526.32027299519496</v>
+        <v>508.72471113327401</v>
       </c>
       <c r="F82" s="3">
-        <v>498.41915807691998</v>
+        <v>478.23514749845901</v>
       </c>
       <c r="G82" s="3">
-        <v>560.297364604108</v>
-      </c>
-      <c r="H82" s="2">
-        <v>90.861391328545494</v>
-      </c>
-      <c r="I82" s="2">
-        <v>2.46771687011422</v>
-      </c>
-      <c r="J82" s="1">
-        <v>1.8972266535215401</v>
+        <v>546.68418689215105</v>
+      </c>
+      <c r="H82" s="7">
+        <v>93.6505262475835</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1.9621705384308299</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.76828442175683698</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
         <v>33</v>
@@ -4261,33 +4250,33 @@
         <v>34</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3">
-        <v>523.75260128902505</v>
+        <v>524.95720293476904</v>
       </c>
       <c r="F83" s="3">
-        <v>502.63265043893398</v>
+        <v>490.99831094785799</v>
       </c>
       <c r="G83" s="3">
-        <v>557.126340952345</v>
-      </c>
-      <c r="H83" s="2">
-        <v>93.94812517938</v>
-      </c>
-      <c r="I83" s="2">
-        <v>2.34640253031858</v>
-      </c>
-      <c r="J83" s="1">
-        <v>1.4751333923709899</v>
+        <v>564.24965664576098</v>
+      </c>
+      <c r="H83" s="7">
+        <v>88.006400100308994</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1.49153259080314</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1.80688993836157</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
         <v>34</v>
@@ -4296,30 +4285,30 @@
         <v>0</v>
       </c>
       <c r="E84" s="3">
-        <v>511.572903712749</v>
+        <v>524.98597308498597</v>
       </c>
       <c r="F84" s="3">
-        <v>475.810940856993</v>
+        <v>494.14246708919001</v>
       </c>
       <c r="G84" s="3">
-        <v>547.50641584622304</v>
-      </c>
-      <c r="H84" s="2">
-        <v>93.817111330746002</v>
-      </c>
-      <c r="I84" s="2">
-        <v>1.89798862160823</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0.85720277659014998</v>
+        <v>565.76487067421897</v>
+      </c>
+      <c r="H84" s="7">
+        <v>90.993611799883993</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2.4435180704687598</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.89463307885598298</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
@@ -4328,382 +4317,382 @@
         <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>492.87516494171899</v>
+        <v>528.41572211385403</v>
       </c>
       <c r="F85" s="3">
-        <v>462.91921157776602</v>
+        <v>501.77867411287599</v>
       </c>
       <c r="G85" s="3">
-        <v>529.97720424845897</v>
-      </c>
-      <c r="H85" s="2">
-        <v>90.2290202343099</v>
-      </c>
-      <c r="I85" s="2">
-        <v>2.5700896562686402</v>
-      </c>
-      <c r="J85" s="1">
-        <v>1.37258171483128</v>
+        <v>569.60534820530597</v>
+      </c>
+      <c r="H85" s="7">
+        <v>93.805459841220397</v>
+      </c>
+      <c r="I85" s="7">
+        <v>2.4243772856972301</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.86361134042385501</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>490.60323810395698</v>
+        <v>528.88211522406903</v>
       </c>
       <c r="F86" s="3">
-        <v>459.54589558996702</v>
+        <v>500.852641419983</v>
       </c>
       <c r="G86" s="3">
-        <v>525.14354747155005</v>
-      </c>
-      <c r="H86" s="2">
-        <v>96.536950957767999</v>
-      </c>
-      <c r="I86" s="2">
-        <v>1.1672586743698199</v>
-      </c>
-      <c r="J86" s="1">
-        <v>2.0530909170366098</v>
+        <v>555.15841728857401</v>
+      </c>
+      <c r="H86" s="7">
+        <v>92.761373632230899</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1.4739648463650901</v>
+      </c>
+      <c r="J86" s="6">
+        <v>2.5272036362572501</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" s="3">
-        <v>483.532761807729</v>
+        <v>530.89271243231701</v>
       </c>
       <c r="F87" s="3">
-        <v>467.317641052336</v>
+        <v>505.59656876742099</v>
       </c>
       <c r="G87" s="3">
-        <v>493.92927032761401</v>
-      </c>
-      <c r="H87" s="2">
-        <v>97.311763206030705</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.6446875238229099</v>
+        <v>560.27052516740798</v>
+      </c>
+      <c r="H87" s="7">
+        <v>95.430202894464898</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1.14475371117495</v>
+      </c>
+      <c r="J87" s="6">
+        <v>1.4048667068816501</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" s="3">
-        <v>482.151355553857</v>
+        <v>536.20271945699903</v>
       </c>
       <c r="F88" s="3">
-        <v>442.82051977578499</v>
+        <v>513.72198318597805</v>
       </c>
       <c r="G88" s="3">
-        <v>510.634290222559</v>
-      </c>
-      <c r="H88" s="2">
-        <v>96.000889434429695</v>
-      </c>
-      <c r="I88" s="2">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1">
-        <v>3.8198154503100499</v>
+        <v>567.793047849309</v>
+      </c>
+      <c r="H88" s="7">
+        <v>94.569877797799705</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1.5968952276652799</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.482658535704309</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3">
-        <v>479.33591847641299</v>
+        <v>550.46104965716995</v>
       </c>
       <c r="F89" s="3">
-        <v>463.974724228338</v>
+        <v>498.96101967102601</v>
       </c>
       <c r="G89" s="3">
-        <v>492.37749624328598</v>
-      </c>
-      <c r="H89" s="2">
-        <v>97.285275516008994</v>
-      </c>
-      <c r="I89" s="2">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
-        <v>3.68729278433598</v>
+        <v>613.53305449474396</v>
+      </c>
+      <c r="H89" s="7">
+        <v>79.610678234810393</v>
+      </c>
+      <c r="I89" s="7">
+        <v>2.05566943600292</v>
+      </c>
+      <c r="J89" s="6">
+        <v>9.8963900763076698</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" s="3">
-        <v>473.49853374825301</v>
+        <v>557.90958186812804</v>
       </c>
       <c r="F90" s="3">
-        <v>452.56055984299798</v>
+        <v>533.63948164729197</v>
       </c>
       <c r="G90" s="3">
-        <v>518.394281634001</v>
-      </c>
-      <c r="H90" s="2">
-        <v>92.673058737540103</v>
-      </c>
-      <c r="I90" s="2">
-        <v>2.4056554088949502</v>
-      </c>
-      <c r="J90" s="1">
-        <v>1.2478911648862301</v>
+        <v>600.68280396299599</v>
+      </c>
+      <c r="H90" s="7">
+        <v>95.530151458117203</v>
+      </c>
+      <c r="I90" s="7">
+        <v>2.6449223789241998</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.96959978961878401</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3">
-        <v>470.74885822553802</v>
+        <v>561.98123790745001</v>
       </c>
       <c r="F91" s="3">
-        <v>447.87708979022801</v>
+        <v>529.16838906359999</v>
       </c>
       <c r="G91" s="3">
-        <v>485.37369409892</v>
-      </c>
-      <c r="H91" s="2">
-        <v>96.279686196606605</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1">
-        <v>2.0113991136434199</v>
+        <v>595.05163990785297</v>
+      </c>
+      <c r="H91" s="7">
+        <v>96.121559856500696</v>
+      </c>
+      <c r="I91" s="7">
+        <v>1.2558116597711499</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0.53095147433692003</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3">
-        <v>470.32916402482402</v>
+        <v>564.71857953802498</v>
       </c>
       <c r="F92" s="3">
-        <v>448.05939135001898</v>
+        <v>536.59271821499897</v>
       </c>
       <c r="G92" s="3">
-        <v>489.23760986805399</v>
-      </c>
-      <c r="H92" s="2">
-        <v>97.473872213323403</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
-        <v>2.0635953412128099</v>
+        <v>610.34615371847701</v>
+      </c>
+      <c r="H92" s="7">
+        <v>86.810747704392796</v>
+      </c>
+      <c r="I92" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J92" s="6">
+        <v>3.6725497149097901</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>466.150334721989</v>
+        <v>593.83007138255402</v>
       </c>
       <c r="F93" s="3">
-        <v>438.124787708398</v>
+        <v>560.65789728319396</v>
       </c>
       <c r="G93" s="3">
-        <v>496.72078014298302</v>
-      </c>
-      <c r="H93" s="2">
-        <v>94.269737141316995</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0.108493540139489</v>
-      </c>
-      <c r="J93" s="1">
-        <v>2.16860009606444</v>
+        <v>622.73019274344699</v>
+      </c>
+      <c r="H93" s="7">
+        <v>93.704958387052599</v>
+      </c>
+      <c r="I93" s="7">
+        <v>1.2302300882159101</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1.6812451393161301</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>465.61098212177399</v>
+        <v>596.17953249473703</v>
       </c>
       <c r="F94" s="3">
-        <v>452.914151301846</v>
+        <v>518.63240946572796</v>
       </c>
       <c r="G94" s="3">
-        <v>480.19057281445203</v>
-      </c>
-      <c r="H94" s="2">
-        <v>95.954380575014497</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <v>2.43309948260065</v>
+        <v>672.12837928777799</v>
+      </c>
+      <c r="H94" s="7">
+        <v>76.723238176780399</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1.3691746228200301</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1.3031947916051601</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" s="3">
-        <v>463.06686774060802</v>
+        <v>596.51400843003</v>
       </c>
       <c r="F95" s="3">
-        <v>443.69361328282298</v>
+        <v>558.17111997895199</v>
       </c>
       <c r="G95" s="3">
-        <v>475.71614906763199</v>
-      </c>
-      <c r="H95" s="2">
-        <v>96.937094104989299</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>1.5130641809585701</v>
+        <v>641.57156147512603</v>
+      </c>
+      <c r="H95" s="7">
+        <v>84.259308605692496</v>
+      </c>
+      <c r="I95" s="7">
+        <v>1.85890312020068</v>
+      </c>
+      <c r="J95" s="6">
+        <v>1.1622409168860299</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>461.780733171772</v>
+        <v>597.17604013411699</v>
       </c>
       <c r="F96" s="3">
-        <v>431.87788979584798</v>
+        <v>555.46134387372604</v>
       </c>
       <c r="G96" s="3">
-        <v>485.48170354150301</v>
-      </c>
-      <c r="H96" s="2">
-        <v>92.2721995513172</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0.65069831975261905</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0.57298096235428497</v>
+        <v>624.59111604562895</v>
+      </c>
+      <c r="H96" s="7">
+        <v>93.270001705684706</v>
+      </c>
+      <c r="I96" s="7">
+        <v>1.24262367663783</v>
+      </c>
+      <c r="J96" s="6">
+        <v>1.0256757268076899</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
@@ -4712,2299 +4701,2179 @@
         <v>0</v>
       </c>
       <c r="E97" s="3">
-        <v>458.78696370280102</v>
+        <v>601.54804923630604</v>
       </c>
       <c r="F97" s="3">
-        <v>423.86116731425199</v>
+        <v>570.32482092740702</v>
       </c>
       <c r="G97" s="3">
-        <v>505.954832817007</v>
-      </c>
-      <c r="H97" s="2">
-        <v>91.569157835637199</v>
-      </c>
-      <c r="I97" s="2">
-        <v>2.7836635479094598</v>
-      </c>
-      <c r="J97" s="1">
-        <v>4.1550526188163497</v>
+        <v>623.54976562391005</v>
+      </c>
+      <c r="H97" s="7">
+        <v>94.932645279935102</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0.66131913999726799</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1.2578597210815501</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>458.30537166994901</v>
+        <v>601.80225964710098</v>
       </c>
       <c r="F98" s="3">
-        <v>427.05654752110001</v>
+        <v>558.57701144323903</v>
       </c>
       <c r="G98" s="3">
-        <v>478.59858807478798</v>
-      </c>
-      <c r="H98" s="2">
-        <v>98.372333565690496</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1">
-        <v>2.9928195095227799</v>
+        <v>666.53601065864598</v>
+      </c>
+      <c r="H98" s="7">
+        <v>78.717927119199999</v>
+      </c>
+      <c r="I98" s="7">
+        <v>2.44609969748721</v>
+      </c>
+      <c r="J98" s="6">
+        <v>1.32283856561602</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="3">
-        <v>456.73570278881698</v>
+        <v>603.32646302828505</v>
       </c>
       <c r="F99" s="3">
-        <v>443.82149691696202</v>
+        <v>566.905386090413</v>
       </c>
       <c r="G99" s="3">
-        <v>465.723890842949</v>
-      </c>
-      <c r="H99" s="2">
-        <v>96.561788005658997</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>2.0076800311583098</v>
+        <v>646.58954657194602</v>
+      </c>
+      <c r="H99" s="7">
+        <v>92.179104656203705</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1.17514306957527</v>
+      </c>
+      <c r="J99" s="6">
+        <v>1.51962470343428</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>453.58006727466301</v>
+        <v>612.64895371443697</v>
       </c>
       <c r="F100" s="3">
-        <v>432.74958622228098</v>
+        <v>575.80349982047801</v>
       </c>
       <c r="G100" s="3">
-        <v>469.96900464571598</v>
-      </c>
-      <c r="H100" s="2">
-        <v>93.8744837993804</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0.76751102174041697</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0.73291459413926696</v>
+        <v>630.61290779223998</v>
+      </c>
+      <c r="H100" s="7">
+        <v>97.323428180008804</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0.56597988205993199</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>446.32547043650402</v>
+        <v>643.91404604703598</v>
       </c>
       <c r="F101" s="3">
-        <v>417.22560355033198</v>
+        <v>565.72000847549396</v>
       </c>
       <c r="G101" s="3">
-        <v>476.864806953803</v>
-      </c>
-      <c r="H101" s="2">
-        <v>95.712874306959804</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0.130458953456833</v>
-      </c>
-      <c r="J101" s="1">
-        <v>2.79966870307224</v>
+        <v>697.73538942737002</v>
+      </c>
+      <c r="H101" s="7">
+        <v>84.729210263206895</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1.0418234021235999</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4.5862006521352896</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="3">
-        <v>444.86530955548199</v>
+        <v>648.52884585591698</v>
       </c>
       <c r="F102" s="3">
-        <v>426.27613819821102</v>
+        <v>624.13895286657601</v>
       </c>
       <c r="G102" s="3">
-        <v>462.37755664756497</v>
-      </c>
-      <c r="H102" s="2">
-        <v>96.309177987945404</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0.29296579138457901</v>
-      </c>
-      <c r="J102" s="1">
-        <v>1.8481638463376699</v>
+        <v>695.512123985838</v>
+      </c>
+      <c r="H102" s="7">
+        <v>93.532209986965</v>
+      </c>
+      <c r="I102" s="7">
+        <v>3.3085421985368901</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0.65721154333718401</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <v>428.074852838163</v>
+        <v>657.09078328356202</v>
       </c>
       <c r="F103" s="3">
-        <v>403.69756117098098</v>
+        <v>590.51554908081505</v>
       </c>
       <c r="G103" s="3">
-        <v>456.88356979900198</v>
-      </c>
-      <c r="H103" s="2">
-        <v>89.443225887963294</v>
-      </c>
-      <c r="I103" s="2">
-        <v>1.4131208409553599</v>
-      </c>
-      <c r="J103" s="1">
-        <v>1.19812806852334</v>
+        <v>694.74892507217896</v>
+      </c>
+      <c r="H103" s="7">
+        <v>83.680409189154005</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.204911729864859</v>
+      </c>
+      <c r="J103" s="6">
+        <v>8.4484543623387491</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3">
-        <v>423.55164221786799</v>
+        <v>657.26895576644904</v>
       </c>
       <c r="F104" s="3">
-        <v>406.20906881642799</v>
+        <v>619.29385287652497</v>
       </c>
       <c r="G104" s="3">
-        <v>442.919888162002</v>
-      </c>
-      <c r="H104" s="2">
-        <v>95.949569266577896</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0.207465591564792</v>
-      </c>
-      <c r="J104" s="1">
-        <v>1.82484709094897</v>
+        <v>689.73146527967197</v>
+      </c>
+      <c r="H104" s="7">
+        <v>93.062848399450203</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <v>2.2550963658003602</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <v>423.10807664456701</v>
+        <v>660.81046088679898</v>
       </c>
       <c r="F105" s="3">
-        <v>408.998521846953</v>
+        <v>613.60307628257704</v>
       </c>
       <c r="G105" s="3">
-        <v>435.62230206886898</v>
-      </c>
-      <c r="H105" s="2">
-        <v>97.427885657090897</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0.36323528420689499</v>
-      </c>
-      <c r="J105" s="1">
-        <v>1.4720150989829399</v>
+        <v>720.36185843283602</v>
+      </c>
+      <c r="H105" s="7">
+        <v>93.6234256473805</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2.3706555683172601</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0.95756415448409404</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" s="3">
-        <v>421.79380362854198</v>
+        <v>661.47919427844101</v>
       </c>
       <c r="F106" s="3">
-        <v>403.22598770897798</v>
+        <v>619.19096322890698</v>
       </c>
       <c r="G106" s="3">
-        <v>436.77301895415098</v>
-      </c>
-      <c r="H106" s="2">
-        <v>95.264625037454493</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0.35795367742858403</v>
-      </c>
-      <c r="J106" s="1">
-        <v>3.2963185801483701</v>
+        <v>698.18040807959596</v>
+      </c>
+      <c r="H106" s="7">
+        <v>90.090538889175406</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1.6546043620644599</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.38892948061931798</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="3">
-        <v>420.05576427755199</v>
+        <v>662.28806361802594</v>
       </c>
       <c r="F107" s="3">
-        <v>397.76007881725599</v>
+        <v>604.161545104026</v>
       </c>
       <c r="G107" s="3">
-        <v>446.55275026263701</v>
-      </c>
-      <c r="H107" s="2">
-        <v>86.411476655359806</v>
-      </c>
-      <c r="I107" s="2">
-        <v>2.7552349049539302</v>
-      </c>
-      <c r="J107" s="1">
-        <v>1.8511839519928699</v>
+        <v>724.87179747994605</v>
+      </c>
+      <c r="H107" s="7">
+        <v>90.025747663589499</v>
+      </c>
+      <c r="I107" s="7">
+        <v>2.1768369863013</v>
+      </c>
+      <c r="J107" s="6">
+        <v>6.0988654611331503</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="3">
-        <v>416.675492828431</v>
+        <v>664.66141627627303</v>
       </c>
       <c r="F108" s="3">
-        <v>390.55537082234503</v>
+        <v>587.30799717029799</v>
       </c>
       <c r="G108" s="3">
-        <v>444.28661146426498</v>
-      </c>
-      <c r="H108" s="2">
-        <v>85.285110266749797</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0.80358888997445999</v>
-      </c>
-      <c r="J108" s="1">
-        <v>0.85956025541838998</v>
+        <v>707.62768639940396</v>
+      </c>
+      <c r="H108" s="7">
+        <v>85.7307904095194</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0.14782057223800801</v>
+      </c>
+      <c r="J108" s="6">
+        <v>4.1284749310356696</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" s="3">
-        <v>408.97659797151101</v>
+        <v>682.20460338875398</v>
       </c>
       <c r="F109" s="3">
-        <v>396.450232424668</v>
+        <v>627.07948564284402</v>
       </c>
       <c r="G109" s="3">
-        <v>420.489623085787</v>
-      </c>
-      <c r="H109" s="2">
-        <v>97.328194433239304</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0.14732561063644101</v>
-      </c>
-      <c r="J109" s="1">
-        <v>2.1540077753803799</v>
+        <v>713.16454412425696</v>
+      </c>
+      <c r="H109" s="7">
+        <v>84.094938054887393</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>6.0375680896767401</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <v>407.92512737136002</v>
+        <v>683.91161115599402</v>
       </c>
       <c r="F110" s="3">
-        <v>394.61175350498098</v>
+        <v>645.98574313337099</v>
       </c>
       <c r="G110" s="3">
-        <v>421.64915081322198</v>
-      </c>
-      <c r="H110" s="2">
-        <v>97.157067691781805</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0.52863928959708595</v>
-      </c>
-      <c r="J110" s="1">
-        <v>0.40428104068956799</v>
+        <v>725.90324567554296</v>
+      </c>
+      <c r="H110" s="7">
+        <v>96.425070686532706</v>
+      </c>
+      <c r="I110" s="7">
+        <v>1.3892906587324001</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0.248192388468884</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" s="3">
-        <v>401.10319335631499</v>
+        <v>683.93063294498199</v>
       </c>
       <c r="F111" s="3">
-        <v>378.11403337894097</v>
+        <v>617.78388684966001</v>
       </c>
       <c r="G111" s="3">
-        <v>425.63936561273698</v>
-      </c>
-      <c r="H111" s="2">
-        <v>93.863756899682301</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0.821548178844135</v>
-      </c>
-      <c r="J111" s="1">
-        <v>0.723739955990224</v>
+        <v>721.36684482360101</v>
+      </c>
+      <c r="H111" s="7">
+        <v>84.075588828662404</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <v>5.2998315775685301</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" s="3">
-        <v>400.336708862818</v>
+        <v>695.85272706044395</v>
       </c>
       <c r="F112" s="3">
-        <v>377.23615308309701</v>
+        <v>636.92625328876102</v>
       </c>
       <c r="G112" s="3">
-        <v>422.232425440432</v>
-      </c>
-      <c r="H112" s="2">
-        <v>97.228886554610199</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0.32766207444623602</v>
-      </c>
-      <c r="J112" s="1">
-        <v>2.73871605447532</v>
+        <v>727.29446662477994</v>
+      </c>
+      <c r="H112" s="7">
+        <v>97.724231192807196</v>
+      </c>
+      <c r="I112" s="7">
+        <v>0.403383572388408</v>
+      </c>
+      <c r="J112" s="6">
+        <v>1.16166826372359</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" s="3">
-        <v>398.89495538950302</v>
+        <v>699.839404349142</v>
       </c>
       <c r="F113" s="3">
-        <v>377.80532236710297</v>
+        <v>630.50767938604895</v>
       </c>
       <c r="G113" s="3">
-        <v>413.091672235229</v>
-      </c>
-      <c r="H113" s="2">
-        <v>92.836915095902199</v>
-      </c>
-      <c r="I113" s="2">
-        <v>1.0405796636060201</v>
-      </c>
-      <c r="J113" s="1">
-        <v>2.0425692318856501</v>
+        <v>733.13129980973497</v>
+      </c>
+      <c r="H113" s="7">
+        <v>85.899501835975798</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0.12743043137015</v>
+      </c>
+      <c r="J113" s="6">
+        <v>5.07283410171567</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" s="3">
-        <v>397.596930609504</v>
+        <v>699.90904048441405</v>
       </c>
       <c r="F114" s="3">
-        <v>371.59941468755801</v>
+        <v>635.75884331933401</v>
       </c>
       <c r="G114" s="3">
-        <v>421.84864466595002</v>
-      </c>
-      <c r="H114" s="2">
-        <v>93.779202971001496</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0.29987527721083002</v>
-      </c>
-      <c r="J114" s="1">
-        <v>2.1631760621168898</v>
+        <v>725.84140693525796</v>
+      </c>
+      <c r="H114" s="7">
+        <v>94.729516002077304</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0.51340963577766097</v>
+      </c>
+      <c r="J114" s="6">
+        <v>1.0391631068359199</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" s="3">
-        <v>394.93708781261103</v>
+        <v>701.67652560936199</v>
       </c>
       <c r="F115" s="3">
-        <v>377.32122819412803</v>
+        <v>654.71506276888101</v>
       </c>
       <c r="G115" s="3">
-        <v>413.90621600657602</v>
-      </c>
-      <c r="H115" s="2">
-        <v>94.731758483868305</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0.65729474854700198</v>
-      </c>
-      <c r="J115" s="1">
-        <v>1.8407465526028099</v>
+        <v>735.14208906763702</v>
+      </c>
+      <c r="H115" s="7">
+        <v>83.417365304188095</v>
+      </c>
+      <c r="I115" s="7">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>10.772091992285199</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" s="3">
-        <v>392.682464780033</v>
+        <v>703.38431087809295</v>
       </c>
       <c r="F116" s="3">
-        <v>376.51586965665098</v>
+        <v>671.93826880476797</v>
       </c>
       <c r="G116" s="3">
-        <v>412.15522218394</v>
-      </c>
-      <c r="H116" s="2">
-        <v>96.550293579354005</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0.66135079412251796</v>
-      </c>
-      <c r="J116" s="1">
-        <v>1.23708911260236</v>
+        <v>718.15032078775698</v>
+      </c>
+      <c r="H116" s="7">
+        <v>98.6408190148328</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0.72116727472558695</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" s="3">
-        <v>388.04954636725103</v>
+        <v>713.72924758360205</v>
       </c>
       <c r="F117" s="3">
-        <v>371.60215077708699</v>
+        <v>655.25725819418403</v>
       </c>
       <c r="G117" s="3">
-        <v>400.55734804591498</v>
-      </c>
-      <c r="H117" s="2">
-        <v>95.321876389885105</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0.66936745388102803</v>
-      </c>
-      <c r="J117" s="1">
-        <v>0.97225456825884504</v>
+        <v>746.60062557531</v>
+      </c>
+      <c r="H117" s="7">
+        <v>96.666114606984195</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0.63777471609096403</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0.87048843637961104</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" s="3">
-        <v>382.12283569288098</v>
+        <v>719.70285372252897</v>
       </c>
       <c r="F118" s="3">
-        <v>370.81371612881901</v>
+        <v>675.88651799468096</v>
       </c>
       <c r="G118" s="3">
-        <v>395.78080156080802</v>
-      </c>
-      <c r="H118" s="2">
-        <v>97.163226353982296</v>
-      </c>
-      <c r="I118" s="2">
-        <v>0.66800310116088202</v>
-      </c>
-      <c r="J118" s="1">
-        <v>0.89653802133699101</v>
+        <v>746.10716531056801</v>
+      </c>
+      <c r="H118" s="7">
+        <v>97.234748339853297</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0.48991679104904601</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0.33096585539979301</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" s="3">
-        <v>379.10144673429102</v>
+        <v>719.80785503851598</v>
       </c>
       <c r="F119" s="3">
-        <v>364.89063455320399</v>
+        <v>663.32687340455197</v>
       </c>
       <c r="G119" s="3">
-        <v>395.53572676931799</v>
-      </c>
-      <c r="H119" s="2">
-        <v>95.013596878591599</v>
-      </c>
-      <c r="I119" s="2">
-        <v>1.62499928426732</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0.42340262404115497</v>
+        <v>753.88371433792497</v>
+      </c>
+      <c r="H119" s="7">
+        <v>84.684769503618</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6">
+        <v>7.4128509463793799</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="3">
-        <v>378.60045476139902</v>
+        <v>720.22415999602094</v>
       </c>
       <c r="F120" s="3">
-        <v>356.85626518888</v>
+        <v>652.72204024241603</v>
       </c>
       <c r="G120" s="3">
-        <v>402.91613062285501</v>
-      </c>
-      <c r="H120" s="2">
-        <v>95.327545077409894</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0.97298235364102004</v>
-      </c>
-      <c r="J120" s="1">
-        <v>1.9953044850224599</v>
+        <v>758.86992671601797</v>
+      </c>
+      <c r="H120" s="7">
+        <v>84.314454743482898</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6">
+        <v>9.6596645033288002</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" s="3">
-        <v>378.56341741053399</v>
+        <v>720.792249327229</v>
       </c>
       <c r="F121" s="3">
-        <v>366.73494596192</v>
+        <v>680.01069253777996</v>
       </c>
       <c r="G121" s="3">
-        <v>391.13594004776701</v>
-      </c>
-      <c r="H121" s="2">
-        <v>96.363436059993603</v>
-      </c>
-      <c r="I121" s="2">
-        <v>0.91401393070751502</v>
-      </c>
-      <c r="J121" s="1">
-        <v>0.70317274099624305</v>
+        <v>738.93169001386696</v>
+      </c>
+      <c r="H121" s="7">
+        <v>97.331978586975396</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6">
+        <v>0.51666643898127196</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" s="3">
-        <v>373.22794240859298</v>
+        <v>722.65265707598803</v>
       </c>
       <c r="F122" s="3">
-        <v>362.665258677211</v>
+        <v>632.764165619712</v>
       </c>
       <c r="G122" s="3">
-        <v>388.03113232643699</v>
-      </c>
-      <c r="H122" s="2">
-        <v>96.005609633639295</v>
-      </c>
-      <c r="I122" s="2">
-        <v>1.43969052674686</v>
-      </c>
-      <c r="J122" s="1">
-        <v>0.76034068515405295</v>
+        <v>763.00474789262603</v>
+      </c>
+      <c r="H122" s="7">
+        <v>83.852675185737596</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0.105016780196521</v>
+      </c>
+      <c r="J122" s="6">
+        <v>3.14109216302937</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" s="3">
-        <v>357.36233912500097</v>
+        <v>728.04843612116099</v>
       </c>
       <c r="F123" s="3">
-        <v>339.78979897559998</v>
+        <v>674.46784509818497</v>
       </c>
       <c r="G123" s="3">
-        <v>373.61309102908399</v>
-      </c>
-      <c r="H123" s="2">
-        <v>94.125906945568801</v>
-      </c>
-      <c r="I123" s="2">
-        <v>1.0783086988374699</v>
-      </c>
-      <c r="J123" s="1">
-        <v>1.3553356037184601</v>
+        <v>752.71722945339195</v>
+      </c>
+      <c r="H123" s="7">
+        <v>97.359503975974505</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0.26177921569822399</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="3">
-        <v>352.49922338289099</v>
+        <v>729.02945096495898</v>
       </c>
       <c r="F124" s="3">
-        <v>337.25637103745299</v>
+        <v>694.46526359880795</v>
       </c>
       <c r="G124" s="3">
-        <v>370.138884263107</v>
-      </c>
-      <c r="H124" s="2">
-        <v>92.216194585032099</v>
-      </c>
-      <c r="I124" s="2">
-        <v>1.1325772549713</v>
-      </c>
-      <c r="J124" s="1">
-        <v>6.28897034347162</v>
+        <v>752.29570371884597</v>
+      </c>
+      <c r="H124" s="7">
+        <v>97.4102479721534</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <v>0.68891077846856996</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" s="3">
-        <v>302.73891578817802</v>
+        <v>739.74815628373699</v>
       </c>
       <c r="F125" s="3">
-        <v>277.12765682076702</v>
+        <v>686.96052967057005</v>
       </c>
       <c r="G125" s="3">
-        <v>319.919586485612</v>
-      </c>
-      <c r="H125" s="2">
-        <v>99.129892545257604</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1">
-        <v>28.085797539561099</v>
+        <v>763.38618271581595</v>
+      </c>
+      <c r="H125" s="7">
+        <v>97.867646924494196</v>
+      </c>
+      <c r="I125" s="7">
+        <v>0.56656807609820203</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0.90585358859240594</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" s="3">
-        <v>290.46398086169199</v>
+        <v>739.79802525019204</v>
       </c>
       <c r="F126" s="3">
-        <v>261.65100469362602</v>
+        <v>681.06323875657097</v>
       </c>
       <c r="G126" s="3">
-        <v>311.694745736671</v>
-      </c>
-      <c r="H126" s="2">
-        <v>99.086821545656704</v>
-      </c>
-      <c r="I126" s="2">
-        <v>0</v>
-      </c>
-      <c r="J126" s="1">
-        <v>28.091931176465</v>
+        <v>773.91067524039602</v>
+      </c>
+      <c r="H126" s="7">
+        <v>85.108448840297996</v>
+      </c>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6">
+        <v>5.7124925704854501</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" s="3">
-        <v>260.53044126424697</v>
+        <v>745.15882864443699</v>
       </c>
       <c r="F127" s="3">
-        <v>245.85054462737901</v>
+        <v>714.13790042912603</v>
       </c>
       <c r="G127" s="3">
-        <v>278.67229470145298</v>
-      </c>
-      <c r="H127" s="2">
-        <v>96.309898194687406</v>
-      </c>
-      <c r="I127" s="2">
-        <v>0.59351421038948604</v>
-      </c>
-      <c r="J127" s="1">
-        <v>12.6345446399589</v>
+        <v>805.22220278906798</v>
+      </c>
+      <c r="H127" s="7">
+        <v>89.559875486748993</v>
+      </c>
+      <c r="I127" s="7">
+        <v>2.9635020534956298</v>
+      </c>
+      <c r="J127" s="6">
+        <v>4.5282075968104598</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" s="3">
-        <v>252.33206318270999</v>
+        <v>807.63015321032697</v>
       </c>
       <c r="F128" s="3">
-        <v>238.91460253687899</v>
+        <v>717.68025716569298</v>
       </c>
       <c r="G128" s="3">
-        <v>268.64201160602499</v>
-      </c>
-      <c r="H128" s="2">
-        <v>96.427380233539296</v>
-      </c>
-      <c r="I128" s="2">
-        <v>0.27549627317771402</v>
-      </c>
-      <c r="J128" s="1">
-        <v>14.3158260223454</v>
+        <v>892.93559343070797</v>
+      </c>
+      <c r="H128" s="7">
+        <v>90.537977454629498</v>
+      </c>
+      <c r="I128" s="7">
+        <v>2.5778038306718201</v>
+      </c>
+      <c r="J128" s="6">
+        <v>5.5784494703499599</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" s="3">
-        <v>248.726601922763</v>
+        <v>833.15886151549398</v>
       </c>
       <c r="F129" s="3">
-        <v>234.60943648164701</v>
+        <v>766.41421042844399</v>
       </c>
       <c r="G129" s="3">
-        <v>261.68411172553999</v>
-      </c>
-      <c r="H129" s="2">
-        <v>96.765085184950905</v>
-      </c>
-      <c r="I129" s="2">
-        <v>4.6932331966329198E-2</v>
-      </c>
-      <c r="J129" s="1">
-        <v>10.7059286601983</v>
+        <v>916.60603662678398</v>
+      </c>
+      <c r="H129" s="7">
+        <v>94.727717600919704</v>
+      </c>
+      <c r="I129" s="7">
+        <v>1.66617957017465</v>
+      </c>
+      <c r="J129" s="6">
+        <v>2.8791344578969902</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" s="3">
-        <v>243.42029675467799</v>
+        <v>837.82099170461299</v>
       </c>
       <c r="F130" s="3">
-        <v>230.46571605323601</v>
+        <v>716.41180651832599</v>
       </c>
       <c r="G130" s="3">
-        <v>256.518585754566</v>
-      </c>
-      <c r="H130" s="2">
-        <v>95.150634139323202</v>
-      </c>
-      <c r="I130" s="2">
-        <v>4.1893799790815997E-3</v>
-      </c>
-      <c r="J130" s="1">
-        <v>6.4718709253625404</v>
+        <v>929.47387363086398</v>
+      </c>
+      <c r="H130" s="7">
+        <v>93.206278131161497</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0.28555054745923603</v>
+      </c>
+      <c r="J130" s="6">
+        <v>4.6864695954357503</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" s="3">
-        <v>241.28080468112799</v>
+        <v>838.76855278842504</v>
       </c>
       <c r="F131" s="3">
-        <v>226.81345781679701</v>
+        <v>758.25237541134697</v>
       </c>
       <c r="G131" s="3">
-        <v>258.35657218163999</v>
-      </c>
-      <c r="H131" s="2">
-        <v>98.303520127120507</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
-      </c>
-      <c r="J131" s="1">
-        <v>14.6328455783559</v>
+        <v>920.32071309369701</v>
+      </c>
+      <c r="H131" s="7">
+        <v>91.387319880296701</v>
+      </c>
+      <c r="I131" s="7">
+        <v>1.6643708427122801</v>
+      </c>
+      <c r="J131" s="6">
+        <v>3.8944524016404798</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" s="3">
-        <v>234.61453890268399</v>
+        <v>840.87835470503205</v>
       </c>
       <c r="F132" s="3">
-        <v>223.89317142504001</v>
+        <v>759.22481960436005</v>
       </c>
       <c r="G132" s="3">
-        <v>245.05748192236899</v>
-      </c>
-      <c r="H132" s="2">
-        <v>96.4725632998029</v>
-      </c>
-      <c r="I132" s="2">
-        <v>4.1613998280147599E-2</v>
-      </c>
-      <c r="J132" s="1">
-        <v>6.7925445552294503</v>
+        <v>918.06946322614101</v>
+      </c>
+      <c r="H132" s="7">
+        <v>94.591380156490203</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1.8068372950554601</v>
+      </c>
+      <c r="J132" s="6">
+        <v>2.0605295491317501</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" s="3">
-        <v>231.894742888184</v>
+        <v>842.22664978277601</v>
       </c>
       <c r="F133" s="3">
-        <v>223.76505079153699</v>
+        <v>719.50075145555104</v>
       </c>
       <c r="G133" s="3">
-        <v>240.930096597541</v>
-      </c>
-      <c r="H133" s="2">
-        <v>96.727626941656794</v>
-      </c>
-      <c r="I133" s="2">
-        <v>0.15447158881863801</v>
-      </c>
-      <c r="J133" s="1">
-        <v>1.60921953661132</v>
+        <v>921.13458836876896</v>
+      </c>
+      <c r="H133" s="7">
+        <v>93.637090606300006</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>7.37131305752622</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" s="3">
-        <v>229.73625859031401</v>
+        <v>846.58195882630002</v>
       </c>
       <c r="F134" s="3">
-        <v>223.03802583330901</v>
+        <v>743.97784322187795</v>
       </c>
       <c r="G134" s="3">
-        <v>237.825520407429</v>
-      </c>
-      <c r="H134" s="2">
-        <v>96.237187273625906</v>
-      </c>
-      <c r="I134" s="2">
-        <v>0.235932692879953</v>
-      </c>
-      <c r="J134" s="1">
-        <v>2.7663897664791399</v>
+        <v>933.44341270373002</v>
+      </c>
+      <c r="H134" s="7">
+        <v>95.291323315381106</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0.77512609167379098</v>
+      </c>
+      <c r="J134" s="6">
+        <v>3.6139192082707199</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" s="3">
-        <v>229.482209507796</v>
+        <v>862.62179816003504</v>
       </c>
       <c r="F135" s="3">
-        <v>221.08316339618099</v>
+        <v>788.68264737713901</v>
       </c>
       <c r="G135" s="3">
-        <v>239.00610271733299</v>
-      </c>
-      <c r="H135" s="2">
-        <v>95.836813690000596</v>
-      </c>
-      <c r="I135" s="2">
-        <v>0.241988186718815</v>
-      </c>
-      <c r="J135" s="1">
-        <v>1.0790420140988499</v>
+        <v>912.57158078474902</v>
+      </c>
+      <c r="H135" s="7">
+        <v>92.190887062210294</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1.1334933378849401</v>
+      </c>
+      <c r="J135" s="6">
+        <v>5.8625764543914904</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" s="3">
-        <v>227.27669139697699</v>
+        <v>867.98995849601999</v>
       </c>
       <c r="F136" s="3">
-        <v>218.34541566534699</v>
+        <v>737.98159905796297</v>
       </c>
       <c r="G136" s="3">
-        <v>237.71553335071701</v>
-      </c>
-      <c r="H136" s="2">
-        <v>95.325995170349799</v>
-      </c>
-      <c r="I136" s="2">
-        <v>0.44690863831216798</v>
-      </c>
-      <c r="J136" s="1">
-        <v>1.6433950413727301</v>
+        <v>1011.16729713449</v>
+      </c>
+      <c r="H136" s="7">
+        <v>92.727768314768497</v>
+      </c>
+      <c r="I136" s="7">
+        <v>1.8003359261285099</v>
+      </c>
+      <c r="J136" s="6">
+        <v>10.637958067057401</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" s="3">
-        <v>226.36871770461701</v>
+        <v>870.59910815807496</v>
       </c>
       <c r="F137" s="3">
-        <v>211.585560073473</v>
+        <v>813.11173082132996</v>
       </c>
       <c r="G137" s="3">
-        <v>244.36521333498999</v>
-      </c>
-      <c r="H137" s="2">
-        <v>95.209460704729594</v>
-      </c>
-      <c r="I137" s="2">
-        <v>0.96328015226711206</v>
-      </c>
-      <c r="J137" s="1">
-        <v>1.76046758176329</v>
+        <v>886.70623015909598</v>
+      </c>
+      <c r="H137" s="7">
+        <v>93.308233387064206</v>
+      </c>
+      <c r="I137" s="7">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6">
+        <v>4.8495240965047097</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="3">
-        <v>223.38964610025499</v>
+        <v>873.64411882923002</v>
       </c>
       <c r="F138" s="3">
-        <v>204.259742706352</v>
+        <v>827.92115439067402</v>
       </c>
       <c r="G138" s="3">
-        <v>240.51865941621901</v>
-      </c>
-      <c r="H138" s="2">
-        <v>96.772344611342405</v>
-      </c>
-      <c r="I138" s="2">
-        <v>0.21453496430341201</v>
-      </c>
-      <c r="J138" s="1">
-        <v>2.0770183554499102</v>
+        <v>914.18021066359904</v>
+      </c>
+      <c r="H138" s="7">
+        <v>94.868505102367493</v>
+      </c>
+      <c r="I138" s="7">
+        <v>1.66388107651005</v>
+      </c>
+      <c r="J138" s="6">
+        <v>0.92548172297620102</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" s="3">
-        <v>222.90029119156401</v>
+        <v>875.50113835947502</v>
       </c>
       <c r="F139" s="3">
-        <v>198.27030534259501</v>
+        <v>789.43839667182101</v>
       </c>
       <c r="G139" s="3">
-        <v>245.467949495021</v>
-      </c>
-      <c r="H139" s="2">
-        <v>94.581221700846598</v>
-      </c>
-      <c r="I139" s="2">
-        <v>2.81322821712422</v>
-      </c>
-      <c r="J139" s="1">
-        <v>18.418398789107201</v>
+        <v>928.21085449541999</v>
+      </c>
+      <c r="H139" s="7">
+        <v>96.552088733326698</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6">
+        <v>2.24895054297181</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" s="3">
-        <v>222.05450380086901</v>
+        <v>893.79150610487295</v>
       </c>
       <c r="F140" s="3">
-        <v>209.35911323405301</v>
+        <v>804.81458541638995</v>
       </c>
       <c r="G140" s="3">
-        <v>239.621849806401</v>
-      </c>
-      <c r="H140" s="2">
-        <v>94.930025940218997</v>
-      </c>
-      <c r="I140" s="2">
-        <v>0.20982958156034301</v>
-      </c>
-      <c r="J140" s="1">
-        <v>2.9851856800883101</v>
+        <v>964.93109850346298</v>
+      </c>
+      <c r="H140" s="7">
+        <v>93.4483559360513</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6">
+        <v>5.6518227476375902</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" s="3">
-        <v>221.13893127940801</v>
+        <v>895.70967893487204</v>
       </c>
       <c r="F141" s="3">
-        <v>207.084095484789</v>
+        <v>821.06557419989599</v>
       </c>
       <c r="G141" s="3">
-        <v>237.514780240156</v>
-      </c>
-      <c r="H141" s="2">
-        <v>93.595368032700094</v>
-      </c>
-      <c r="I141" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J141" s="1">
-        <v>16.308954512690899</v>
+        <v>973.552972397188</v>
+      </c>
+      <c r="H141" s="7">
+        <v>93.731749232856103</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6">
+        <v>6.4377746952389803</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" s="3">
-        <v>218.21698976073901</v>
+        <v>897.27628998136697</v>
       </c>
       <c r="F142" s="3">
-        <v>200.16668992683799</v>
+        <v>758.86564527040105</v>
       </c>
       <c r="G142" s="3">
-        <v>243.33779078053399</v>
-      </c>
-      <c r="H142" s="2">
-        <v>93.523891061251504</v>
-      </c>
-      <c r="I142" s="2">
-        <v>3.47743630551739</v>
-      </c>
-      <c r="J142" s="1">
-        <v>9.1954343468979207</v>
+        <v>1022.52205924957</v>
+      </c>
+      <c r="H142" s="7">
+        <v>95.172734101609606</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>9.3838746063715295</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" s="3">
-        <v>217.68405622361499</v>
+        <v>898.93728297346502</v>
       </c>
       <c r="F143" s="3">
-        <v>202.593846670175</v>
+        <v>842.61109495464598</v>
       </c>
       <c r="G143" s="3">
-        <v>241.424406966992</v>
-      </c>
-      <c r="H143" s="2">
-        <v>93.189708791575399</v>
-      </c>
-      <c r="I143" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J143" s="1">
-        <v>13.669668781469699</v>
+        <v>909.468356107202</v>
+      </c>
+      <c r="H143" s="7">
+        <v>94.535951141760606</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6">
+        <v>0.94038007100143395</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B144" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" s="3">
-        <v>216.515979067535</v>
+        <v>979.91164153264594</v>
       </c>
       <c r="F144" s="3">
-        <v>206.74004431401599</v>
+        <v>937.55829454501202</v>
       </c>
       <c r="G144" s="3">
-        <v>227.657470480489</v>
-      </c>
-      <c r="H144" s="2">
-        <v>96.490843566403399</v>
-      </c>
-      <c r="I144" s="2">
-        <v>0.13467493015964699</v>
-      </c>
-      <c r="J144" s="1">
-        <v>2.9556501878988199</v>
+        <v>1025.4150035263699</v>
+      </c>
+      <c r="H144" s="7">
+        <v>95.700150265289096</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6">
+        <v>4.0315536481836496</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" s="3">
-        <v>216.305866238921</v>
+        <v>1007.62190617225</v>
       </c>
       <c r="F145" s="3">
-        <v>210.12532387216899</v>
+        <v>955.50087374416796</v>
       </c>
       <c r="G145" s="3">
-        <v>221.14592806322801</v>
-      </c>
-      <c r="H145" s="2">
-        <v>95.0605114024183</v>
-      </c>
-      <c r="I145" s="2">
-        <v>0.219522403596219</v>
-      </c>
-      <c r="J145" s="1">
-        <v>2.0746414236088602</v>
+        <v>1109.5044238949799</v>
+      </c>
+      <c r="H145" s="7">
+        <v>77.603376503268194</v>
+      </c>
+      <c r="I145" s="7">
+        <v>3.1738050994650502</v>
+      </c>
+      <c r="J145" s="6">
+        <v>13.070693035210599</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" s="3">
-        <v>216.29712968176199</v>
+        <v>2001.5057517842399</v>
       </c>
       <c r="F146" s="3">
-        <v>205.51059276217001</v>
+        <v>1835.0758273270999</v>
       </c>
       <c r="G146" s="3">
-        <v>223.93951357684799</v>
-      </c>
-      <c r="H146" s="2">
-        <v>94.683002894591098</v>
-      </c>
-      <c r="I146" s="2">
-        <v>0.353307085891369</v>
-      </c>
-      <c r="J146" s="1">
-        <v>4.5305807209812601</v>
+        <v>2192.2048085819301</v>
+      </c>
+      <c r="H146" s="7">
+        <v>92.852091632602793</v>
+      </c>
+      <c r="I146" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J146" s="6">
+        <v>2.1881472033735001</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" s="3">
-        <v>215.16956635190701</v>
+        <v>2030.52098044944</v>
       </c>
       <c r="F147" s="3">
-        <v>207.64432233538699</v>
+        <v>1873.8173312454101</v>
       </c>
       <c r="G147" s="3">
-        <v>225.89326555688501</v>
-      </c>
-      <c r="H147" s="2">
-        <v>95.815189416515807</v>
-      </c>
-      <c r="I147" s="2">
-        <v>0.24636635804281001</v>
-      </c>
-      <c r="J147" s="1">
-        <v>1.40083007269058</v>
+        <v>2209.25087745779</v>
+      </c>
+      <c r="H147" s="7">
+        <v>93.043688150605405</v>
+      </c>
+      <c r="I147" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J147" s="6">
+        <v>2.0696706256570301</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" s="3">
-        <v>213.486551914931</v>
+        <v>2086.2748762313099</v>
       </c>
       <c r="F148" s="3">
-        <v>206.4241504382</v>
+        <v>1960.0513065699199</v>
       </c>
       <c r="G148" s="3">
-        <v>223.064251292394</v>
-      </c>
-      <c r="H148" s="2">
-        <v>94.469780115327296</v>
-      </c>
-      <c r="I148" s="2">
-        <v>0.52842711398303199</v>
-      </c>
-      <c r="J148" s="1">
-        <v>0.77484792126773805</v>
+        <v>2217.1676134085201</v>
+      </c>
+      <c r="H148" s="7">
+        <v>93.2724455641265</v>
+      </c>
+      <c r="I148" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J148" s="6">
+        <v>1.4340395429695101</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" s="3">
-        <v>212.966045111733</v>
+        <v>2093.6032294137099</v>
       </c>
       <c r="F149" s="3">
-        <v>205.949388091787</v>
+        <v>1967.2204719646099</v>
       </c>
       <c r="G149" s="3">
-        <v>221.78182029131901</v>
-      </c>
-      <c r="H149" s="2">
-        <v>95.799010354578897</v>
-      </c>
-      <c r="I149" s="2">
-        <v>0.35173278034392502</v>
-      </c>
-      <c r="J149" s="1">
-        <v>1.26098495098801</v>
+        <v>2263.65256877809</v>
+      </c>
+      <c r="H149" s="7">
+        <v>91.555185590914704</v>
+      </c>
+      <c r="I149" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J149" s="6">
+        <v>2.8617368432400001</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" s="3">
-        <v>212.68776348734099</v>
+        <v>2252.1234092084901</v>
       </c>
       <c r="F150" s="3">
-        <v>198.22961097814201</v>
+        <v>2087.8067953893401</v>
       </c>
       <c r="G150" s="3">
-        <v>234.42758908499999</v>
-      </c>
-      <c r="H150" s="2">
-        <v>92.983110675238905</v>
-      </c>
-      <c r="I150" s="2">
+        <v>2536.8350410308399</v>
+      </c>
+      <c r="H150" s="7">
+        <v>93.239651392430304</v>
+      </c>
+      <c r="I150" s="7">
         <v>3.5</v>
       </c>
-      <c r="J150" s="1">
-        <v>10.6890199000169</v>
+      <c r="J150" s="6">
+        <v>0.166025572838402</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" s="3">
-        <v>211.73599653470799</v>
+        <v>2280.5848051315502</v>
       </c>
       <c r="F151" s="3">
-        <v>193.54268149827101</v>
+        <v>2173.4756535479901</v>
       </c>
       <c r="G151" s="3">
-        <v>235.91510556157201</v>
-      </c>
-      <c r="H151" s="2">
-        <v>92.478812696250799</v>
-      </c>
-      <c r="I151" s="2">
+        <v>2467.2811230902298</v>
+      </c>
+      <c r="H151" s="7">
+        <v>93.547571421074096</v>
+      </c>
+      <c r="I151" s="7">
         <v>3.5</v>
       </c>
-      <c r="J151" s="1">
-        <v>12.3291078570027</v>
+      <c r="J151" s="6">
+        <v>0.47189380018171301</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" s="3">
-        <v>209.333513906864</v>
+        <v>2357.4856250022599</v>
       </c>
       <c r="F152" s="3">
-        <v>199.24944004381899</v>
+        <v>2154.7239194232702</v>
       </c>
       <c r="G152" s="3">
-        <v>220.94978284935101</v>
-      </c>
-      <c r="H152" s="2">
-        <v>95.212179029058603</v>
-      </c>
-      <c r="I152" s="2">
-        <v>0.29459889904160602</v>
-      </c>
-      <c r="J152" s="1">
-        <v>1.93257053388185</v>
+        <v>2609.55422445779</v>
+      </c>
+      <c r="H152" s="7">
+        <v>93.478714998743101</v>
+      </c>
+      <c r="I152" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0.60897904960673099</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="3">
-        <v>208.987345309933</v>
+        <v>2370.5439255634201</v>
       </c>
       <c r="F153" s="3">
-        <v>200.67792353045201</v>
+        <v>2304.5522346940302</v>
       </c>
       <c r="G153" s="3">
-        <v>219.328663028341</v>
-      </c>
-      <c r="H153" s="2">
-        <v>96.154093801656799</v>
-      </c>
-      <c r="I153" s="2">
-        <v>0.33511665798304902</v>
-      </c>
-      <c r="J153" s="1">
-        <v>1.8957247196806699</v>
+        <v>2588.3838734770902</v>
+      </c>
+      <c r="H153" s="7">
+        <v>80.487919987191006</v>
+      </c>
+      <c r="I153" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J153" s="6">
+        <v>0.69657814317284095</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" s="3">
-        <v>203.75414658206199</v>
+        <v>2448.7237324719799</v>
       </c>
       <c r="F154" s="3">
-        <v>196.526941400959</v>
+        <v>2370.9751114873902</v>
       </c>
       <c r="G154" s="3">
-        <v>211.53065406369601</v>
-      </c>
-      <c r="H154" s="2">
-        <v>94.809671799031193</v>
-      </c>
-      <c r="I154" s="2">
-        <v>0.63794763569458601</v>
-      </c>
-      <c r="J154" s="1">
-        <v>0.56656730897529906</v>
+        <v>2585.3623116686299</v>
+      </c>
+      <c r="H154" s="7">
+        <v>94.638945378138203</v>
+      </c>
+      <c r="I154" s="7">
+        <v>2.6107238110119702</v>
+      </c>
+      <c r="J154" s="6">
+        <v>0.98517621583631398</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="3">
-        <v>181.354195454896</v>
+        <v>2492.5766805302001</v>
       </c>
       <c r="F155" s="3">
-        <v>169.86233313985599</v>
+        <v>2315.5791356896402</v>
       </c>
       <c r="G155" s="3">
-        <v>195.84969872301801</v>
-      </c>
-      <c r="H155" s="2">
-        <v>80.067365008366494</v>
-      </c>
-      <c r="I155" s="2">
-        <v>0.835202295137216</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0.797146007154382</v>
+        <v>2910.3666434091601</v>
+      </c>
+      <c r="H155" s="7">
+        <v>95.289823264319196</v>
+      </c>
+      <c r="I155" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J155" s="6">
+        <v>0.93059443285505095</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" s="3">
-        <v>170.142352847909</v>
+        <v>2648.7036094679002</v>
       </c>
       <c r="F156" s="3">
-        <v>150.28437550414901</v>
+        <v>2534.3741907490198</v>
       </c>
       <c r="G156" s="3">
-        <v>196.25707378557101</v>
-      </c>
-      <c r="H156" s="2">
-        <v>90.0831723577639</v>
-      </c>
-      <c r="I156" s="2">
-        <v>2.9585452807847701</v>
-      </c>
-      <c r="J156" s="1">
-        <v>3.86110977582568</v>
+        <v>2940.6337100358</v>
+      </c>
+      <c r="H156" s="7">
+        <v>93.044919987336996</v>
+      </c>
+      <c r="I156" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J156" s="6">
+        <v>0.26676228694280202</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" s="3">
-        <v>139.56529793760299</v>
+        <v>2651.0758528145998</v>
       </c>
       <c r="F157" s="3">
-        <v>131.43339037957799</v>
+        <v>2423.5061254131201</v>
       </c>
       <c r="G157" s="3">
-        <v>146.629463285252</v>
-      </c>
-      <c r="H157" s="2">
-        <v>92.996582835566002</v>
-      </c>
-      <c r="I157" s="2">
-        <v>0.37565739332235598</v>
-      </c>
-      <c r="J157" s="1">
-        <v>1.1253309474130999</v>
+        <v>2861.6408313393299</v>
+      </c>
+      <c r="H157" s="7">
+        <v>93.896097084201003</v>
+      </c>
+      <c r="I157" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J157" s="6">
+        <v>2.3538775759661399</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C158" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" s="3">
-        <v>134.27597743240401</v>
+        <v>2679.64348612903</v>
       </c>
       <c r="F158" s="3">
-        <v>127.94067948105101</v>
+        <v>2500.2144206377602</v>
       </c>
       <c r="G158" s="3">
-        <v>139.836763675697</v>
-      </c>
-      <c r="H158" s="2">
-        <v>93.951198589563703</v>
-      </c>
-      <c r="I158" s="2">
-        <v>0.58485899819905696</v>
-      </c>
-      <c r="J158" s="1">
-        <v>1.2279286686742099</v>
+        <v>3096.5148085470801</v>
+      </c>
+      <c r="H158" s="7">
+        <v>92.754763173823406</v>
+      </c>
+      <c r="I158" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J158" s="6">
+        <v>1.0765332684233999</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" s="3">
-        <v>130.18865234292201</v>
+        <v>2811.4598624012201</v>
       </c>
       <c r="F159" s="3">
-        <v>121.98078518358901</v>
+        <v>2603.6547229306898</v>
       </c>
       <c r="G159" s="3">
-        <v>137.16011582875299</v>
-      </c>
-      <c r="H159" s="2">
-        <v>93.516051391458006</v>
-      </c>
-      <c r="I159" s="2">
-        <v>0.54439987579396298</v>
-      </c>
-      <c r="J159" s="1">
-        <v>0.735059443540653</v>
+        <v>3015.6545540581301</v>
+      </c>
+      <c r="H159" s="7">
+        <v>94.567684185725</v>
+      </c>
+      <c r="I159" s="7">
+        <v>2.07950129858098</v>
+      </c>
+      <c r="J159" s="6">
+        <v>5.0243395291068603E-2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C160" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" s="3">
-        <v>130.12971012248201</v>
+        <v>2851.2314404295298</v>
       </c>
       <c r="F160" s="3">
-        <v>122.43804988007101</v>
+        <v>2790.2627487705799</v>
       </c>
       <c r="G160" s="3">
-        <v>140.085420341477</v>
-      </c>
-      <c r="H160" s="2">
-        <v>93.193363264057496</v>
-      </c>
-      <c r="I160" s="2">
-        <v>0.541681918778669</v>
-      </c>
-      <c r="J160" s="1">
-        <v>2.4106488297761599</v>
+        <v>3085.8869624400099</v>
+      </c>
+      <c r="H160" s="7">
+        <v>91.590343228164002</v>
+      </c>
+      <c r="I160" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J160" s="6">
+        <v>0.19454457670570199</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C161" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" s="3">
-        <v>129.66203998101099</v>
+        <v>2891.1852680113402</v>
       </c>
       <c r="F161" s="3">
-        <v>125.50801291256499</v>
+        <v>2709.4049009751802</v>
       </c>
       <c r="G161" s="3">
-        <v>133.89531019830099</v>
-      </c>
-      <c r="H161" s="2">
-        <v>92.249125260252995</v>
-      </c>
-      <c r="I161" s="2">
-        <v>0.49716209778242498</v>
-      </c>
-      <c r="J161" s="1">
-        <v>1.9341511812734999</v>
+        <v>3040.8946633103201</v>
+      </c>
+      <c r="H161" s="7">
+        <v>95.131477414495905</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6">
+        <v>0.68772840696556803</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="C162" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="3">
-        <v>125.149151960015</v>
+        <v>2971.7882953686299</v>
       </c>
       <c r="F162" s="3">
-        <v>108.309636415236</v>
+        <v>2901.6345892602399</v>
       </c>
       <c r="G162" s="3">
-        <v>146.12427664149001</v>
-      </c>
-      <c r="H162" s="2">
-        <v>51.892755058345003</v>
-      </c>
-      <c r="I162" s="2">
-        <v>0.591789879262684</v>
-      </c>
-      <c r="J162" s="1">
-        <v>5.90026090100607</v>
+        <v>3198.2436187109101</v>
+      </c>
+      <c r="H162" s="7">
+        <v>94.111781792884699</v>
+      </c>
+      <c r="I162" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J162" s="6">
+        <v>0.15086822065879199</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C163" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" s="3">
-        <v>125.07007672397</v>
+        <v>3024.3013340208299</v>
       </c>
       <c r="F163" s="3">
-        <v>116.385269044537</v>
+        <v>2798.2088767995101</v>
       </c>
       <c r="G163" s="3">
-        <v>134.113738646229</v>
-      </c>
-      <c r="H163" s="2">
-        <v>92.637053659495095</v>
-      </c>
-      <c r="I163" s="2">
-        <v>0.64057825945381097</v>
-      </c>
-      <c r="J163" s="1">
-        <v>2.5439213178012001</v>
+        <v>3240.1766614134399</v>
+      </c>
+      <c r="H163" s="7">
+        <v>96.764131499877294</v>
+      </c>
+      <c r="I163" s="7">
+        <v>5.9729527075951902E-2</v>
+      </c>
+      <c r="J163" s="6">
+        <v>1.11212542328359</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" t="b">
-        <v>1</v>
-      </c>
-      <c r="E164" s="3">
-        <v>96.656516646988507</v>
-      </c>
-      <c r="F164" s="3">
-        <v>92.109742426706603</v>
-      </c>
-      <c r="G164" s="3">
-        <v>101.84892852629299</v>
-      </c>
-      <c r="H164" s="2">
-        <v>89.657985425271704</v>
-      </c>
-      <c r="I164" s="2">
-        <v>1.2075904690907799</v>
-      </c>
-      <c r="J164" s="1">
-        <v>4.2164200806761203</v>
-      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="1"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>102</v>
-      </c>
-      <c r="B165" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" t="b">
-        <v>0</v>
-      </c>
-      <c r="E165" s="3">
-        <v>88.426463224633594</v>
-      </c>
-      <c r="F165" s="3">
-        <v>83.341085690970701</v>
-      </c>
-      <c r="G165" s="3">
-        <v>93.070115504842093</v>
-      </c>
-      <c r="H165" s="2">
-        <v>96.453095190383905</v>
-      </c>
-      <c r="I165" s="2">
-        <v>0.228656921445508</v>
-      </c>
-      <c r="J165" s="1">
-        <v>2.6324328599863098</v>
-      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="1"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>103</v>
-      </c>
-      <c r="B166" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
-      </c>
-      <c r="E166" s="3">
-        <v>87.001068012402897</v>
-      </c>
-      <c r="F166" s="3">
-        <v>83.815360779346406</v>
-      </c>
-      <c r="G166" s="3">
-        <v>89.746720463009297</v>
-      </c>
-      <c r="H166" s="2">
-        <v>96.068412934874303</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0.33142985970308098</v>
-      </c>
-      <c r="J166" s="1">
-        <v>0.57145086872031503</v>
-      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="1"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>104</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" t="b">
-        <v>0</v>
-      </c>
-      <c r="E167" s="3">
-        <v>84.518794624578604</v>
-      </c>
-      <c r="F167" s="3">
-        <v>81.590723572064803</v>
-      </c>
-      <c r="G167" s="3">
-        <v>87.575917358599597</v>
-      </c>
-      <c r="H167" s="2">
-        <v>96.135278821105999</v>
-      </c>
-      <c r="I167" s="2">
-        <v>0.20409890338473699</v>
-      </c>
-      <c r="J167" s="1">
-        <v>1.3368550869971001</v>
-      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="1"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>105</v>
-      </c>
-      <c r="B168" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" t="b">
-        <v>0</v>
-      </c>
-      <c r="E168" s="3">
-        <v>83.117545449866</v>
-      </c>
-      <c r="F168" s="3">
-        <v>77.507717001745604</v>
-      </c>
-      <c r="G168" s="3">
-        <v>87.944463867139802</v>
-      </c>
-      <c r="H168" s="2">
-        <v>95.668560909035605</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0.50834083884288706</v>
-      </c>
-      <c r="J168" s="1">
-        <v>0.28258050453970901</v>
-      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J168">
-    <sortCondition descending="1" ref="E1:E168"/>
+    <sortCondition ref="E1:E168"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
